--- a/results/Stats_Report_2024-04-26.xlsx
+++ b/results/Stats_Report_2024-04-26.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AF11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,100 +529,90 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>laneMinionsFirst10Minutes</t>
+          <t>goldEarned</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>jungleCsBefore10Minutes</t>
+          <t>goldPerMinute</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>goldEarned</t>
+          <t>objectivesStolen</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>goldPerMinute</t>
+          <t>totalDamageDealtToChampions</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>objectivesStolen</t>
+          <t>damagePerMinute</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>totalDamageDealtToChampions</t>
+          <t>teamDamagePercentage</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>damagePerMinute</t>
+          <t>damageTakenOnTeamPercentage</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>teamDamagePercentage</t>
+          <t>firstBloodKill</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>damageTakenOnTeamPercentage</t>
+          <t>soloKills</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>firstBloodKill</t>
+          <t>tripleKills</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>soloKills</t>
+          <t>quadraKills</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>tripleKills</t>
+          <t>pentaKills</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>quadraKills</t>
+          <t>multikills</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>pentaKills</t>
+          <t>visionScore</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>multikills</t>
+          <t>visionScorePerMinute</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>visionScore</t>
+          <t>totalTimeCCDealt</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>visionScorePerMinute</t>
+          <t>effectiveHealAndShielding</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>totalTimeCCDealt</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>effectiveHealAndShielding</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>cs14</t>
         </is>
@@ -680,37 +670,37 @@
         <v>5.491932761095788</v>
       </c>
       <c r="O2" t="n">
-        <v>69</v>
+        <v>6785</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>295.7671441282451</v>
       </c>
       <c r="Q2" t="n">
-        <v>6785</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>295.7671441282451</v>
+        <v>10470</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>456.3775948564344</v>
       </c>
       <c r="T2" t="n">
-        <v>10470</v>
+        <v>0.3477544821240512</v>
       </c>
       <c r="U2" t="n">
-        <v>456.3775948564344</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.3477544821240512</v>
+        <v>0.1681513800900457</v>
+      </c>
+      <c r="V2" t="b">
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1681513800900457</v>
-      </c>
-      <c r="X2" t="b">
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>
@@ -719,24 +709,18 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>0.8359501608546595</v>
       </c>
       <c r="AD2" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.8359501608546595</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
         <v>87</v>
       </c>
     </row>
@@ -792,37 +776,37 @@
         <v>5.797040136712221</v>
       </c>
       <c r="O3" t="n">
+        <v>7130</v>
+      </c>
+      <c r="P3" t="n">
+        <v>310.7827856853681</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5022</v>
+      </c>
+      <c r="S3" t="n">
+        <v>218.9043263560533</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.1668025808116429</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.3559174110813462</v>
+      </c>
+      <c r="V3" t="b">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
         <v>1</v>
       </c>
-      <c r="P3" t="n">
-        <v>68.00000008940697</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>7130</v>
-      </c>
-      <c r="R3" t="n">
-        <v>310.7827856853681</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>5022</v>
-      </c>
-      <c r="U3" t="n">
-        <v>218.9043263560533</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.1668025808116429</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.3559174110813462</v>
-      </c>
-      <c r="X3" t="b">
+      <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
         <v>0</v>
@@ -831,24 +815,18 @@
         <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>0.7452698175502628</v>
       </c>
       <c r="AD3" t="n">
-        <v>17</v>
+        <v>229</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.7452698175502628</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>229</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
         <v>84</v>
       </c>
     </row>
@@ -904,33 +882,33 @@
         <v>7.976378533972455</v>
       </c>
       <c r="O4" t="n">
-        <v>80</v>
+        <v>6989</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>304.6695925028424</v>
       </c>
       <c r="Q4" t="n">
-        <v>6989</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>304.6695925028424</v>
+        <v>8806</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>383.8453395621343</v>
       </c>
       <c r="T4" t="n">
-        <v>8806</v>
+        <v>0.2924857372044118</v>
       </c>
       <c r="U4" t="n">
-        <v>383.8453395621343</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.2924857372044118</v>
+        <v>0.1559476791077273</v>
+      </c>
+      <c r="V4" t="b">
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1559476791077273</v>
-      </c>
-      <c r="X4" t="b">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
@@ -943,24 +921,18 @@
         <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>0.6578091743770265</v>
       </c>
       <c r="AD4" t="n">
-        <v>15</v>
+        <v>210</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.6578091743770265</v>
+        <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>210</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH4" t="n">
         <v>110</v>
       </c>
     </row>
@@ -1016,33 +988,33 @@
         <v>5.840626904657426</v>
       </c>
       <c r="O5" t="n">
-        <v>47</v>
+        <v>6086</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>265.2999720519455</v>
       </c>
       <c r="Q5" t="n">
-        <v>6086</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>265.2999720519455</v>
+        <v>3579</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>156.0220814565943</v>
       </c>
       <c r="T5" t="n">
-        <v>3579</v>
+        <v>0.1188870329051157</v>
       </c>
       <c r="U5" t="n">
-        <v>156.0220814565943</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.1188870329051157</v>
+        <v>0.1527776180570942</v>
+      </c>
+      <c r="V5" t="b">
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1527776180570942</v>
-      </c>
-      <c r="X5" t="b">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
@@ -1055,24 +1027,18 @@
         <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>0.5879980845816721</v>
       </c>
       <c r="AD5" t="n">
-        <v>13</v>
+        <v>431</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.5879980845816721</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>431</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="n">
         <v>86</v>
       </c>
     </row>
@@ -1128,33 +1094,33 @@
         <v>1.046082430684912</v>
       </c>
       <c r="O6" t="n">
-        <v>11</v>
+        <v>4247</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>185.1297528706928</v>
       </c>
       <c r="Q6" t="n">
-        <v>4247</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>185.1297528706928</v>
+        <v>2230</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>97.20640964557769</v>
       </c>
       <c r="T6" t="n">
-        <v>2230</v>
+        <v>0.07407016695477828</v>
       </c>
       <c r="U6" t="n">
-        <v>97.20640964557769</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.07407016695477828</v>
+        <v>0.1672059116637865</v>
+      </c>
+      <c r="V6" t="b">
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1672059116637865</v>
-      </c>
-      <c r="X6" t="b">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
@@ -1167,24 +1133,18 @@
         <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>0.7964751748991281</v>
       </c>
       <c r="AD6" t="n">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.7964751748991281</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>88</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH6" t="n">
         <v>18</v>
       </c>
     </row>
@@ -1240,63 +1200,57 @@
         <v>6.62518872767111</v>
       </c>
       <c r="O7" t="n">
-        <v>59</v>
+        <v>10645</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>464.0151118087547</v>
       </c>
       <c r="Q7" t="n">
-        <v>10645</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>464.0151118087547</v>
+        <v>5730</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>249.7705684937496</v>
       </c>
       <c r="T7" t="n">
-        <v>5730</v>
+        <v>0.1037572279555131</v>
       </c>
       <c r="U7" t="n">
-        <v>249.7705684937496</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0.1037572279555131</v>
+        <v>0.2253657755496423</v>
+      </c>
+      <c r="V7" t="b">
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0.2253657755496423</v>
-      </c>
-      <c r="X7" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC7" t="n">
-        <v>2</v>
+        <v>0.4574331068097622</v>
       </c>
       <c r="AD7" t="n">
-        <v>10</v>
+        <v>395</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.4574331068097622</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>395</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH7" t="n">
         <v>92</v>
       </c>
     </row>
@@ -1352,33 +1306,33 @@
         <v>6.62518872767111</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>10251</v>
       </c>
       <c r="P8" t="n">
-        <v>74.00000008940697</v>
+        <v>446.8102567272589</v>
       </c>
       <c r="Q8" t="n">
-        <v>10251</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>446.8102567272589</v>
+        <v>15568</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>678.5661671510776</v>
       </c>
       <c r="T8" t="n">
-        <v>15568</v>
+        <v>0.2818832695644646</v>
       </c>
       <c r="U8" t="n">
-        <v>678.5661671510776</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0.2818832695644646</v>
+        <v>0.4030764449550622</v>
+      </c>
+      <c r="V8" t="b">
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.4030764449550622</v>
-      </c>
-      <c r="X8" t="b">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
@@ -1388,27 +1342,21 @@
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC8" t="n">
-        <v>1</v>
+        <v>0.4551184991900066</v>
       </c>
       <c r="AD8" t="n">
-        <v>10</v>
+        <v>383</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.4551184991900066</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>383</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH8" t="n">
         <v>86</v>
       </c>
     </row>
@@ -1464,37 +1412,37 @@
         <v>5.491932761095788</v>
       </c>
       <c r="O9" t="n">
-        <v>61</v>
+        <v>8932</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>389.3348035414519</v>
       </c>
       <c r="Q9" t="n">
-        <v>8932</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>389.3348035414519</v>
+        <v>7675</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>334.534807477305</v>
       </c>
       <c r="T9" t="n">
-        <v>7675</v>
+        <v>0.1389691527220312</v>
       </c>
       <c r="U9" t="n">
-        <v>334.534807477305</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0.1389691527220312</v>
+        <v>0.1077173202873222</v>
+      </c>
+      <c r="V9" t="b">
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0.1077173202873222</v>
-      </c>
-      <c r="X9" t="b">
+        <v>1</v>
+      </c>
+      <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z9" t="n">
         <v>0</v>
@@ -1503,24 +1451,18 @@
         <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>0.4968580453976196</v>
       </c>
       <c r="AD9" t="n">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.4968580453976196</v>
+        <v>761.2379150390625</v>
       </c>
       <c r="AF9" t="n">
-        <v>121</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>761.2379150390625</v>
-      </c>
-      <c r="AH9" t="n">
         <v>84</v>
       </c>
     </row>
@@ -1576,34 +1518,34 @@
         <v>7.714857926301227</v>
       </c>
       <c r="O10" t="n">
-        <v>67</v>
+        <v>11052</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>481.7396028893473</v>
       </c>
       <c r="Q10" t="n">
-        <v>11052</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>481.7396028893473</v>
+        <v>11640</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>507.3583216619843</v>
       </c>
       <c r="T10" t="n">
-        <v>11640</v>
+        <v>0.210761793726415</v>
       </c>
       <c r="U10" t="n">
-        <v>507.3583216619843</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0.210761793726415</v>
+        <v>0.1867149224592857</v>
+      </c>
+      <c r="V10" t="b">
+        <v>1</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1867149224592857</v>
-      </c>
-      <c r="X10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1615,24 +1557,18 @@
         <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>0.8168031353667673</v>
       </c>
       <c r="AD10" t="n">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.8168031353667673</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>83</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH10" t="n">
         <v>114</v>
       </c>
     </row>
@@ -1688,37 +1624,37 @@
         <v>1.220429502465731</v>
       </c>
       <c r="O11" t="n">
-        <v>18</v>
+        <v>8063</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>351.4700758451476</v>
       </c>
       <c r="Q11" t="n">
-        <v>8063</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>351.4700758451476</v>
+        <v>14615</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>637.0295947770143</v>
       </c>
       <c r="T11" t="n">
-        <v>14615</v>
+        <v>0.2646285560315761</v>
       </c>
       <c r="U11" t="n">
-        <v>637.0295947770143</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0.2646285560315761</v>
+        <v>0.07712553674868768</v>
+      </c>
+      <c r="V11" t="b">
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0.07712553674868768</v>
-      </c>
-      <c r="X11" t="b">
+        <v>1</v>
+      </c>
+      <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
@@ -1727,24 +1663,18 @@
         <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>1.909215628080777</v>
       </c>
       <c r="AD11" t="n">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="AE11" t="n">
-        <v>1.909215628080777</v>
+        <v>2533.677734375</v>
       </c>
       <c r="AF11" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>2533.677734375</v>
-      </c>
-      <c r="AH11" t="n">
         <v>20</v>
       </c>
     </row>
@@ -1759,7 +1689,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1840,100 +1770,90 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>laneMinionsFirst10Minutes</t>
+          <t>goldEarned</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>jungleCsBefore10Minutes</t>
+          <t>goldPerMinute</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>goldEarned</t>
+          <t>objectivesStolen</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>goldPerMinute</t>
+          <t>totalDamageDealtToChampions</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>objectivesStolen</t>
+          <t>damagePerMinute</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>totalDamageDealtToChampions</t>
+          <t>teamDamagePercentage</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>damagePerMinute</t>
+          <t>damageTakenOnTeamPercentage</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>teamDamagePercentage</t>
+          <t>firstBloodKill</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>damageTakenOnTeamPercentage</t>
+          <t>soloKills</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>firstBloodKill</t>
+          <t>tripleKills</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>soloKills</t>
+          <t>quadraKills</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>tripleKills</t>
+          <t>pentaKills</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>quadraKills</t>
+          <t>multikills</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>pentaKills</t>
+          <t>visionScore</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>multikills</t>
+          <t>visionScorePerMinute</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>visionScore</t>
+          <t>totalTimeCCDealt</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>visionScorePerMinute</t>
+          <t>effectiveHealAndShielding</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>totalTimeCCDealt</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>effectiveHealAndShielding</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>cs14</t>
         </is>
@@ -1991,34 +1911,34 @@
         <v>7.714857926301227</v>
       </c>
       <c r="O2" t="n">
-        <v>67</v>
+        <v>11052</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>481.7396028893473</v>
       </c>
       <c r="Q2" t="n">
-        <v>11052</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>481.7396028893473</v>
+        <v>11640</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>507.3583216619843</v>
       </c>
       <c r="T2" t="n">
-        <v>11640</v>
+        <v>0.210761793726415</v>
       </c>
       <c r="U2" t="n">
-        <v>507.3583216619843</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.210761793726415</v>
+        <v>0.1867149224592857</v>
+      </c>
+      <c r="V2" t="b">
+        <v>1</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1867149224592857</v>
-      </c>
-      <c r="X2" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -2030,24 +1950,18 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>0.8168031353667673</v>
       </c>
       <c r="AD2" t="n">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.8168031353667673</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>83</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
         <v>114</v>
       </c>
     </row>
@@ -2103,63 +2017,57 @@
         <v>8.184876857400273</v>
       </c>
       <c r="O3" t="n">
-        <v>63</v>
+        <v>15388</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>542.8851925185506</v>
       </c>
       <c r="Q3" t="n">
-        <v>15388</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>542.8851925185506</v>
+        <v>23748</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>837.8533838655474</v>
       </c>
       <c r="T3" t="n">
-        <v>23748</v>
+        <v>0.2718253885974861</v>
       </c>
       <c r="U3" t="n">
-        <v>837.8533838655474</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.2718253885974861</v>
+        <v>0.1232155967186951</v>
+      </c>
+      <c r="V3" t="b">
+        <v>1</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1232155967186951</v>
-      </c>
-      <c r="X3" t="b">
         <v>1</v>
       </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
       <c r="Y3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AC3" t="n">
-        <v>2</v>
+        <v>0.8585707574854987</v>
       </c>
       <c r="AD3" t="n">
-        <v>24</v>
+        <v>921</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.8585707574854987</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>921</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
         <v>108</v>
       </c>
     </row>
@@ -2174,7 +2082,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2255,100 +2163,90 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>laneMinionsFirst10Minutes</t>
+          <t>goldEarned</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>jungleCsBefore10Minutes</t>
+          <t>goldPerMinute</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>goldEarned</t>
+          <t>objectivesStolen</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>goldPerMinute</t>
+          <t>totalDamageDealtToChampions</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>objectivesStolen</t>
+          <t>damagePerMinute</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>totalDamageDealtToChampions</t>
+          <t>teamDamagePercentage</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>damagePerMinute</t>
+          <t>damageTakenOnTeamPercentage</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>teamDamagePercentage</t>
+          <t>firstBloodKill</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>damageTakenOnTeamPercentage</t>
+          <t>soloKills</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>firstBloodKill</t>
+          <t>tripleKills</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>soloKills</t>
+          <t>quadraKills</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>tripleKills</t>
+          <t>pentaKills</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>quadraKills</t>
+          <t>multikills</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>pentaKills</t>
+          <t>visionScore</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>multikills</t>
+          <t>visionScorePerMinute</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>visionScore</t>
+          <t>totalTimeCCDealt</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>visionScorePerMinute</t>
+          <t>effectiveHealAndShielding</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>totalTimeCCDealt</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>effectiveHealAndShielding</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>cs14</t>
         </is>
@@ -2406,37 +2304,37 @@
         <v>1.220429502465731</v>
       </c>
       <c r="O2" t="n">
-        <v>18</v>
+        <v>8063</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.4700758451476</v>
       </c>
       <c r="Q2" t="n">
-        <v>8063</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>351.4700758451476</v>
+        <v>14615</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>637.0295947770143</v>
       </c>
       <c r="T2" t="n">
-        <v>14615</v>
+        <v>0.2646285560315761</v>
       </c>
       <c r="U2" t="n">
-        <v>637.0295947770143</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.2646285560315761</v>
+        <v>0.07712553674868768</v>
+      </c>
+      <c r="V2" t="b">
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.07712553674868768</v>
-      </c>
-      <c r="X2" t="b">
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>
@@ -2445,24 +2343,18 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>1.909215628080777</v>
       </c>
       <c r="AD2" t="n">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.909215628080777</v>
+        <v>2533.677734375</v>
       </c>
       <c r="AF2" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>2533.677734375</v>
-      </c>
-      <c r="AH2" t="n">
         <v>20</v>
       </c>
     </row>
@@ -2518,33 +2410,33 @@
         <v>1.093668890428485</v>
       </c>
       <c r="O3" t="n">
-        <v>19</v>
+        <v>8647</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>305.08449077236</v>
       </c>
       <c r="Q3" t="n">
-        <v>8647</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>305.08449077236</v>
+        <v>11708</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>413.0775065054927</v>
       </c>
       <c r="T3" t="n">
-        <v>11708</v>
+        <v>0.1340150387752743</v>
       </c>
       <c r="U3" t="n">
-        <v>413.0775065054927</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.1340150387752743</v>
+        <v>0.1258504527574713</v>
+      </c>
+      <c r="V3" t="b">
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1258504527574713</v>
-      </c>
-      <c r="X3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
@@ -2557,24 +2449,18 @@
         <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>2.098189206759652</v>
       </c>
       <c r="AD3" t="n">
-        <v>59</v>
+        <v>202</v>
       </c>
       <c r="AE3" t="n">
-        <v>2.098189206759652</v>
+        <v>4516.3330078125</v>
       </c>
       <c r="AF3" t="n">
-        <v>202</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>4516.3330078125</v>
-      </c>
-      <c r="AH3" t="n">
         <v>22</v>
       </c>
     </row>
@@ -2589,7 +2475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AF11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2670,100 +2556,90 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>laneMinionsFirst10Minutes</t>
+          <t>goldEarned</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>jungleCsBefore10Minutes</t>
+          <t>goldPerMinute</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>goldEarned</t>
+          <t>objectivesStolen</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>goldPerMinute</t>
+          <t>totalDamageDealtToChampions</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>objectivesStolen</t>
+          <t>damagePerMinute</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>totalDamageDealtToChampions</t>
+          <t>teamDamagePercentage</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>damagePerMinute</t>
+          <t>damageTakenOnTeamPercentage</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>teamDamagePercentage</t>
+          <t>firstBloodKill</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>damageTakenOnTeamPercentage</t>
+          <t>soloKills</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>firstBloodKill</t>
+          <t>tripleKills</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>soloKills</t>
+          <t>quadraKills</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>tripleKills</t>
+          <t>pentaKills</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>quadraKills</t>
+          <t>multikills</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>pentaKills</t>
+          <t>visionScore</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>multikills</t>
+          <t>visionScorePerMinute</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>visionScore</t>
+          <t>totalTimeCCDealt</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>visionScorePerMinute</t>
+          <t>effectiveHealAndShielding</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>totalTimeCCDealt</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>effectiveHealAndShielding</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>cs14</t>
         </is>
@@ -2821,33 +2697,33 @@
         <v>5.221386960755346</v>
       </c>
       <c r="O2" t="n">
-        <v>44</v>
+        <v>9730</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>343.2848319491478</v>
       </c>
       <c r="Q2" t="n">
-        <v>9730</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>343.2848319491478</v>
+        <v>13336</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>470.4903687700346</v>
       </c>
       <c r="T2" t="n">
-        <v>13336</v>
+        <v>0.1526415358403712</v>
       </c>
       <c r="U2" t="n">
-        <v>470.4903687700346</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.1526415358403712</v>
+        <v>0.2654554747859377</v>
+      </c>
+      <c r="V2" t="b">
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.2654554747859377</v>
-      </c>
-      <c r="X2" t="b">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
@@ -2857,27 +2733,21 @@
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AC2" t="n">
-        <v>1</v>
+        <v>0.6633365712555721</v>
       </c>
       <c r="AD2" t="n">
-        <v>18</v>
+        <v>384</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.6633365712555721</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>384</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
         <v>69</v>
       </c>
     </row>
@@ -2933,37 +2803,37 @@
         <v>6.562013342570908</v>
       </c>
       <c r="O3" t="n">
+        <v>11330</v>
+      </c>
+      <c r="P3" t="n">
+        <v>399.7518621808982</v>
+      </c>
+      <c r="Q3" t="n">
         <v>1</v>
       </c>
-      <c r="P3" t="n">
-        <v>60.00000005960464</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>11330</v>
-      </c>
       <c r="R3" t="n">
-        <v>399.7518621808982</v>
+        <v>13717</v>
       </c>
       <c r="S3" t="n">
+        <v>483.9507923505312</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.1570085109471309</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.338792958075351</v>
+      </c>
+      <c r="V3" t="b">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
         <v>1</v>
       </c>
-      <c r="T3" t="n">
-        <v>13717</v>
-      </c>
-      <c r="U3" t="n">
-        <v>483.9507923505312</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.1570085109471309</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.338792958075351</v>
-      </c>
-      <c r="X3" t="b">
+      <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
         <v>0</v>
@@ -2972,24 +2842,18 @@
         <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>0.584781350701289</v>
       </c>
       <c r="AD3" t="n">
-        <v>16</v>
+        <v>363</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.584781350701289</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>363</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
         <v>73</v>
       </c>
     </row>
@@ -3045,63 +2909,57 @@
         <v>6.032818718170028</v>
       </c>
       <c r="O4" t="n">
-        <v>64</v>
+        <v>14665</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>517.410535042053</v>
       </c>
       <c r="Q4" t="n">
-        <v>14665</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>517.410535042053</v>
+        <v>24857</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>876.9499795318641</v>
       </c>
       <c r="T4" t="n">
-        <v>24857</v>
+        <v>0.2845095258397375</v>
       </c>
       <c r="U4" t="n">
-        <v>876.9499795318641</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.2845095258397375</v>
+        <v>0.1466855176625449</v>
+      </c>
+      <c r="V4" t="b">
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1466855176625449</v>
-      </c>
-      <c r="X4" t="b">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1</v>
       </c>
       <c r="Y4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AC4" t="n">
-        <v>6</v>
+        <v>0.5066381503452183</v>
       </c>
       <c r="AD4" t="n">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.5066381503452183</v>
+        <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>56</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH4" t="n">
         <v>86</v>
       </c>
     </row>
@@ -3157,63 +3015,57 @@
         <v>8.184876857400273</v>
       </c>
       <c r="O5" t="n">
-        <v>63</v>
+        <v>15388</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>542.8851925185506</v>
       </c>
       <c r="Q5" t="n">
-        <v>15388</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>542.8851925185506</v>
+        <v>23748</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>837.8533838655474</v>
       </c>
       <c r="T5" t="n">
-        <v>23748</v>
+        <v>0.2718253885974861</v>
       </c>
       <c r="U5" t="n">
-        <v>837.8533838655474</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.2718253885974861</v>
+        <v>0.1232155967186951</v>
+      </c>
+      <c r="V5" t="b">
+        <v>1</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1232155967186951</v>
-      </c>
-      <c r="X5" t="b">
         <v>1</v>
       </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
       <c r="Y5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AC5" t="n">
-        <v>2</v>
+        <v>0.8585707574854987</v>
       </c>
       <c r="AD5" t="n">
-        <v>24</v>
+        <v>921</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.8585707574854987</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>921</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="n">
         <v>108</v>
       </c>
     </row>
@@ -3269,33 +3121,33 @@
         <v>1.093668890428485</v>
       </c>
       <c r="O6" t="n">
-        <v>19</v>
+        <v>8647</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>305.08449077236</v>
       </c>
       <c r="Q6" t="n">
-        <v>8647</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>305.08449077236</v>
+        <v>11708</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>413.0775065054927</v>
       </c>
       <c r="T6" t="n">
-        <v>11708</v>
+        <v>0.1340150387752743</v>
       </c>
       <c r="U6" t="n">
-        <v>413.0775065054927</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.1340150387752743</v>
+        <v>0.1258504527574713</v>
+      </c>
+      <c r="V6" t="b">
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1258504527574713</v>
-      </c>
-      <c r="X6" t="b">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
@@ -3308,24 +3160,18 @@
         <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>2.098189206759652</v>
       </c>
       <c r="AD6" t="n">
-        <v>59</v>
+        <v>202</v>
       </c>
       <c r="AE6" t="n">
-        <v>2.098189206759652</v>
+        <v>4516.3330078125</v>
       </c>
       <c r="AF6" t="n">
-        <v>202</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>4516.3330078125</v>
-      </c>
-      <c r="AH6" t="n">
         <v>22</v>
       </c>
     </row>
@@ -3381,37 +3227,37 @@
         <v>4.409955203340664</v>
       </c>
       <c r="O7" t="n">
-        <v>65</v>
+        <v>7615</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>268.6616027119437</v>
       </c>
       <c r="Q7" t="n">
-        <v>7615</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>268.6616027119437</v>
+        <v>18908</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>667.0764905051791</v>
       </c>
       <c r="T7" t="n">
-        <v>18908</v>
+        <v>0.2941501250727037</v>
       </c>
       <c r="U7" t="n">
-        <v>667.0764905051791</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0.2941501250727037</v>
+        <v>0.1884032771861891</v>
+      </c>
+      <c r="V7" t="b">
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0.1884032771861891</v>
-      </c>
-      <c r="X7" t="b">
+        <v>1</v>
+      </c>
+      <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z7" t="n">
         <v>0</v>
@@ -3420,24 +3266,18 @@
         <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>0.688425660728533</v>
       </c>
       <c r="AD7" t="n">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.688425660728533</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>43</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH7" t="n">
         <v>88</v>
       </c>
     </row>
@@ -3493,33 +3333,33 @@
         <v>5.362505527262248</v>
       </c>
       <c r="O8" t="n">
-        <v>6</v>
+        <v>10387</v>
       </c>
       <c r="P8" t="n">
-        <v>58.00000008940697</v>
+        <v>366.4685866030602</v>
       </c>
       <c r="Q8" t="n">
-        <v>10387</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>366.4685866030602</v>
+        <v>15844</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>559.0045779172366</v>
       </c>
       <c r="T8" t="n">
-        <v>15844</v>
+        <v>0.246495370247638</v>
       </c>
       <c r="U8" t="n">
-        <v>559.0045779172366</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0.246495370247638</v>
+        <v>0.2831280767853755</v>
+      </c>
+      <c r="V8" t="b">
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.2831280767853755</v>
-      </c>
-      <c r="X8" t="b">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
@@ -3529,27 +3369,21 @@
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AC8" t="n">
-        <v>1</v>
+        <v>0.6653344957542048</v>
       </c>
       <c r="AD8" t="n">
-        <v>18</v>
+        <v>1599</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.6653344957542048</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>1599</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH8" t="n">
         <v>76</v>
       </c>
     </row>
@@ -3605,33 +3439,33 @@
         <v>6.738411550704535</v>
       </c>
       <c r="O9" t="n">
-        <v>81</v>
+        <v>8999</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>317.4853881624791</v>
       </c>
       <c r="Q9" t="n">
-        <v>8999</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>317.4853881624791</v>
+        <v>12914</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>455.6062531671345</v>
       </c>
       <c r="T9" t="n">
-        <v>12914</v>
+        <v>0.2009014532224442</v>
       </c>
       <c r="U9" t="n">
-        <v>455.6062531671345</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0.2009014532224442</v>
+        <v>0.2000418558110535</v>
+      </c>
+      <c r="V9" t="b">
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0.2000418558110535</v>
-      </c>
-      <c r="X9" t="b">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
@@ -3644,24 +3478,18 @@
         <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>0.5845356728074993</v>
       </c>
       <c r="AD9" t="n">
-        <v>16</v>
+        <v>810</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.5845356728074993</v>
+        <v>180.1333160400391</v>
       </c>
       <c r="AF9" t="n">
-        <v>810</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>180.1333160400391</v>
-      </c>
-      <c r="AH9" t="n">
         <v>117</v>
       </c>
     </row>
@@ -3717,33 +3545,33 @@
         <v>5.64474266027605</v>
       </c>
       <c r="O10" t="n">
-        <v>45</v>
+        <v>9243</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>326.1049556823836</v>
       </c>
       <c r="Q10" t="n">
-        <v>9243</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>326.1049556823836</v>
+        <v>12737</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>449.3608608270534</v>
       </c>
       <c r="T10" t="n">
-        <v>12737</v>
+        <v>0.1981475217556469</v>
       </c>
       <c r="U10" t="n">
-        <v>449.3608608270534</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0.1981475217556469</v>
+        <v>0.1676849804033957</v>
+      </c>
+      <c r="V10" t="b">
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1676849804033957</v>
-      </c>
-      <c r="X10" t="b">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
@@ -3756,24 +3584,18 @@
         <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>0.4502576980529724</v>
       </c>
       <c r="AD10" t="n">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.4502576980529724</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>63</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH10" t="n">
         <v>77</v>
       </c>
     </row>
@@ -3829,33 +3651,33 @@
         <v>0.670313190907781</v>
       </c>
       <c r="O11" t="n">
-        <v>15</v>
+        <v>6834</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>241.1089605625218</v>
       </c>
       <c r="Q11" t="n">
-        <v>6834</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>241.1089605625218</v>
+        <v>3876</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>136.7614618604506</v>
       </c>
       <c r="T11" t="n">
-        <v>3876</v>
+        <v>0.06030552970156729</v>
       </c>
       <c r="U11" t="n">
-        <v>136.7614618604506</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0.06030552970156729</v>
+        <v>0.1607418098139862</v>
+      </c>
+      <c r="V11" t="b">
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0.1607418098139862</v>
-      </c>
-      <c r="X11" t="b">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
@@ -3868,24 +3690,18 @@
         <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>0.9734797118441764</v>
       </c>
       <c r="AD11" t="n">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.9734797118441764</v>
+        <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>73</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH11" t="n">
         <v>16</v>
       </c>
     </row>
@@ -3900,7 +3716,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AF11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3981,100 +3797,90 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>laneMinionsFirst10Minutes</t>
+          <t>goldEarned</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>jungleCsBefore10Minutes</t>
+          <t>goldPerMinute</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>goldEarned</t>
+          <t>objectivesStolen</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>goldPerMinute</t>
+          <t>totalDamageDealtToChampions</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>objectivesStolen</t>
+          <t>damagePerMinute</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>totalDamageDealtToChampions</t>
+          <t>teamDamagePercentage</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>damagePerMinute</t>
+          <t>damageTakenOnTeamPercentage</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>teamDamagePercentage</t>
+          <t>firstBloodKill</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>damageTakenOnTeamPercentage</t>
+          <t>soloKills</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>firstBloodKill</t>
+          <t>tripleKills</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>soloKills</t>
+          <t>quadraKills</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>tripleKills</t>
+          <t>pentaKills</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>quadraKills</t>
+          <t>multikills</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>pentaKills</t>
+          <t>visionScore</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>multikills</t>
+          <t>visionScorePerMinute</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>visionScore</t>
+          <t>totalTimeCCDealt</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>visionScorePerMinute</t>
+          <t>effectiveHealAndShielding</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>totalTimeCCDealt</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>effectiveHealAndShielding</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>cs14</t>
         </is>
@@ -4132,37 +3938,37 @@
         <v>5.944910622811677</v>
       </c>
       <c r="O2" t="n">
-        <v>54</v>
+        <v>9620</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>334.4600252172686</v>
       </c>
       <c r="Q2" t="n">
-        <v>9620</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>334.4600252172686</v>
+        <v>14506</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>504.3317450145507</v>
       </c>
       <c r="T2" t="n">
-        <v>14506</v>
+        <v>0.2283051741145308</v>
       </c>
       <c r="U2" t="n">
-        <v>504.3317450145507</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.2283051741145308</v>
+        <v>0.3592114352753245</v>
+      </c>
+      <c r="V2" t="b">
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.3592114352753245</v>
-      </c>
-      <c r="X2" t="b">
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>
@@ -4171,24 +3977,18 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>0.5230946888267711</v>
       </c>
       <c r="AD2" t="n">
-        <v>15</v>
+        <v>1614</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.5230946888267711</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>1614</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
         <v>92</v>
       </c>
     </row>
@@ -4244,33 +4044,33 @@
         <v>5.145302761263908</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>8744</v>
       </c>
       <c r="P3" t="n">
-        <v>55.50000005960464</v>
+        <v>304.0003027488473</v>
       </c>
       <c r="Q3" t="n">
-        <v>8744</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>304.0003027488473</v>
+        <v>11442</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>397.8071518689479</v>
       </c>
       <c r="T3" t="n">
-        <v>11442</v>
+        <v>0.1800827173170022</v>
       </c>
       <c r="U3" t="n">
-        <v>397.8071518689479</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.1800827173170022</v>
+        <v>0.165801482211421</v>
+      </c>
+      <c r="V3" t="b">
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.165801482211421</v>
-      </c>
-      <c r="X3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
@@ -4283,24 +4083,18 @@
         <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>0.7919963307791275</v>
       </c>
       <c r="AD3" t="n">
-        <v>22</v>
+        <v>255</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.7919963307791275</v>
+        <v>6868.1279296875</v>
       </c>
       <c r="AF3" t="n">
-        <v>255</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>6868.1279296875</v>
-      </c>
-      <c r="AH3" t="n">
         <v>87</v>
       </c>
     </row>
@@ -4356,34 +4150,34 @@
         <v>4.6585849324957</v>
       </c>
       <c r="O4" t="n">
-        <v>49</v>
+        <v>9417</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>327.4036012716304</v>
       </c>
       <c r="Q4" t="n">
-        <v>9417</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>327.4036012716304</v>
+        <v>16947</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>589.1959688488292</v>
       </c>
       <c r="T4" t="n">
-        <v>16947</v>
+        <v>0.2667222311213637</v>
       </c>
       <c r="U4" t="n">
-        <v>589.1959688488292</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.2667222311213637</v>
+        <v>0.1819065959882141</v>
+      </c>
+      <c r="V4" t="b">
+        <v>1</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1819065959882141</v>
-      </c>
-      <c r="X4" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -4395,24 +4189,18 @@
         <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>0.4536684066074062</v>
       </c>
       <c r="AD4" t="n">
-        <v>13</v>
+        <v>455</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.4536684066074062</v>
+        <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>455</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH4" t="n">
         <v>60</v>
       </c>
     </row>
@@ -4468,33 +4256,33 @@
         <v>6.292566214788968</v>
       </c>
       <c r="O5" t="n">
-        <v>60</v>
+        <v>11046</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>384.0322496576071</v>
       </c>
       <c r="Q5" t="n">
-        <v>11046</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>384.0322496576071</v>
+        <v>14921</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>518.7438686913038</v>
       </c>
       <c r="T5" t="n">
-        <v>14921</v>
+        <v>0.2348293765624381</v>
       </c>
       <c r="U5" t="n">
-        <v>518.7438686913038</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.2348293765624381</v>
+        <v>0.1595700888370689</v>
+      </c>
+      <c r="V5" t="b">
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1595700888370689</v>
-      </c>
-      <c r="X5" t="b">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
@@ -4504,27 +4292,21 @@
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AC5" t="n">
-        <v>1</v>
+        <v>0.8164555854193114</v>
       </c>
       <c r="AD5" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.8164555854193114</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>42</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="n">
         <v>105</v>
       </c>
     </row>
@@ -4580,33 +4362,33 @@
         <v>1.182029012722789</v>
       </c>
       <c r="O6" t="n">
-        <v>11</v>
+        <v>6202</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>215.6446016439488</v>
       </c>
       <c r="Q6" t="n">
-        <v>6202</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>215.6446016439488</v>
+        <v>5722</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>198.9458615828927</v>
       </c>
       <c r="T6" t="n">
-        <v>5722</v>
+        <v>0.09006050088466516</v>
       </c>
       <c r="U6" t="n">
-        <v>198.9458615828927</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.09006050088466516</v>
+        <v>0.1335103976879715</v>
+      </c>
+      <c r="V6" t="b">
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1335103976879715</v>
-      </c>
-      <c r="X6" t="b">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
@@ -4619,24 +4401,18 @@
         <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>2.224044504794932</v>
       </c>
       <c r="AD6" t="n">
-        <v>63</v>
+        <v>168</v>
       </c>
       <c r="AE6" t="n">
-        <v>2.224044504794932</v>
+        <v>936.3641357421875</v>
       </c>
       <c r="AF6" t="n">
-        <v>168</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>936.3641357421875</v>
-      </c>
-      <c r="AH6" t="n">
         <v>20</v>
       </c>
     </row>
@@ -4692,63 +4468,57 @@
         <v>8.065609733873153</v>
       </c>
       <c r="O7" t="n">
-        <v>77</v>
+        <v>12525</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>435.4664006580255</v>
       </c>
       <c r="Q7" t="n">
-        <v>12525</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>435.4664006580255</v>
+        <v>23946</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>832.5070126875532</v>
       </c>
       <c r="T7" t="n">
-        <v>23946</v>
+        <v>0.2826854552556181</v>
       </c>
       <c r="U7" t="n">
-        <v>832.5070126875532</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0.2826854552556181</v>
+        <v>0.2642651833698157</v>
+      </c>
+      <c r="V7" t="b">
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0.2642651833698157</v>
-      </c>
-      <c r="X7" t="b">
+        <v>1</v>
+      </c>
+      <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
         <v>1</v>
       </c>
-      <c r="Z7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0</v>
-      </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AC7" t="n">
-        <v>1</v>
+        <v>0.5972095883270454</v>
       </c>
       <c r="AD7" t="n">
-        <v>17</v>
+        <v>168</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.5972095883270454</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>168</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH7" t="n">
         <v>109</v>
       </c>
     </row>
@@ -4804,33 +4574,33 @@
         <v>4.936709406077533</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>10412</v>
       </c>
       <c r="P8" t="n">
-        <v>50.00000005960464</v>
+        <v>361.9978450282347</v>
       </c>
       <c r="Q8" t="n">
-        <v>10412</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>361.9978450282347</v>
+        <v>8105</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>281.7939715650049</v>
       </c>
       <c r="T8" t="n">
-        <v>8105</v>
+        <v>0.09568574910015658</v>
       </c>
       <c r="U8" t="n">
-        <v>281.7939715650049</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0.09568574910015658</v>
+        <v>0.2855528784122511</v>
+      </c>
+      <c r="V8" t="b">
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.2855528784122511</v>
-      </c>
-      <c r="X8" t="b">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
@@ -4843,24 +4613,18 @@
         <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>0.5055110892663008</v>
       </c>
       <c r="AD8" t="n">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.5055110892663008</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>152</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH8" t="n">
         <v>65</v>
       </c>
     </row>
@@ -4916,63 +4680,57 @@
         <v>5.45819279404347</v>
       </c>
       <c r="O9" t="n">
-        <v>71</v>
+        <v>11112</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>386.3289154613657</v>
       </c>
       <c r="Q9" t="n">
-        <v>11112</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>386.3289154613657</v>
+        <v>23285</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>809.5341077135491</v>
       </c>
       <c r="T9" t="n">
-        <v>23285</v>
+        <v>0.2748847929162634</v>
       </c>
       <c r="U9" t="n">
-        <v>809.5341077135491</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0.2748847929162634</v>
+        <v>0.1598929038903978</v>
+      </c>
+      <c r="V9" t="b">
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0.1598929038903978</v>
-      </c>
-      <c r="X9" t="b">
+        <v>1</v>
+      </c>
+      <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
         <v>1</v>
       </c>
-      <c r="Z9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0</v>
-      </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AC9" t="n">
-        <v>1</v>
+        <v>1.200601792331882</v>
       </c>
       <c r="AD9" t="n">
-        <v>34</v>
+        <v>713</v>
       </c>
       <c r="AE9" t="n">
-        <v>1.200601792331882</v>
+        <v>2761.70166015625</v>
       </c>
       <c r="AF9" t="n">
-        <v>713</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>2761.70166015625</v>
-      </c>
-      <c r="AH9" t="n">
         <v>95</v>
       </c>
     </row>
@@ -5028,63 +4786,57 @@
         <v>7.544126345907216</v>
       </c>
       <c r="O10" t="n">
-        <v>65</v>
+        <v>14164</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>492.4331644776451</v>
       </c>
       <c r="Q10" t="n">
-        <v>14164</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>492.4331644776451</v>
+        <v>24228</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>842.3112398887268</v>
       </c>
       <c r="T10" t="n">
-        <v>24228</v>
+        <v>0.286014571272126</v>
       </c>
       <c r="U10" t="n">
-        <v>842.3112398887268</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0.286014571272126</v>
+        <v>0.1434211585697965</v>
+      </c>
+      <c r="V10" t="b">
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1434211585697965</v>
-      </c>
-      <c r="X10" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>3</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AC10" t="n">
-        <v>6</v>
+        <v>0.5153997731805597</v>
       </c>
       <c r="AD10" t="n">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.5153997731805597</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>150</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH10" t="n">
         <v>118</v>
       </c>
     </row>
@@ -5140,33 +4892,33 @@
         <v>1.112497894327331</v>
       </c>
       <c r="O11" t="n">
-        <v>17</v>
+        <v>8255</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>287.0173949822395</v>
       </c>
       <c r="Q11" t="n">
-        <v>8255</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>287.0173949822395</v>
+        <v>5144</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>178.8478205141286</v>
       </c>
       <c r="T11" t="n">
-        <v>5144</v>
+        <v>0.06072943145583593</v>
       </c>
       <c r="U11" t="n">
-        <v>178.8478205141286</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0.06072943145583593</v>
+        <v>0.1468678757577389</v>
+      </c>
+      <c r="V11" t="b">
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0.1468678757577389</v>
-      </c>
-      <c r="X11" t="b">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
@@ -5179,24 +4931,18 @@
         <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>2.529162072334392</v>
       </c>
       <c r="AD11" t="n">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="AE11" t="n">
-        <v>2.529162072334392</v>
+        <v>1968.940185546875</v>
       </c>
       <c r="AF11" t="n">
-        <v>87</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>1968.940185546875</v>
-      </c>
-      <c r="AH11" t="n">
         <v>25</v>
       </c>
     </row>
@@ -5211,7 +4957,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5292,100 +5038,90 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>laneMinionsFirst10Minutes</t>
+          <t>goldEarned</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>jungleCsBefore10Minutes</t>
+          <t>goldPerMinute</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>goldEarned</t>
+          <t>objectivesStolen</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>goldPerMinute</t>
+          <t>totalDamageDealtToChampions</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>objectivesStolen</t>
+          <t>damagePerMinute</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>totalDamageDealtToChampions</t>
+          <t>teamDamagePercentage</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>damagePerMinute</t>
+          <t>damageTakenOnTeamPercentage</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>teamDamagePercentage</t>
+          <t>firstBloodKill</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>damageTakenOnTeamPercentage</t>
+          <t>soloKills</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>firstBloodKill</t>
+          <t>tripleKills</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>soloKills</t>
+          <t>quadraKills</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>tripleKills</t>
+          <t>pentaKills</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>quadraKills</t>
+          <t>multikills</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>pentaKills</t>
+          <t>visionScore</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>multikills</t>
+          <t>visionScorePerMinute</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>visionScore</t>
+          <t>totalTimeCCDealt</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>visionScorePerMinute</t>
+          <t>effectiveHealAndShielding</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>totalTimeCCDealt</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>effectiveHealAndShielding</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>cs14</t>
         </is>
@@ -5443,37 +5179,37 @@
         <v>5.944910622811677</v>
       </c>
       <c r="O2" t="n">
-        <v>54</v>
+        <v>9620</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>334.4600252172686</v>
       </c>
       <c r="Q2" t="n">
-        <v>9620</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>334.4600252172686</v>
+        <v>14506</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>504.3317450145507</v>
       </c>
       <c r="T2" t="n">
-        <v>14506</v>
+        <v>0.2283051741145308</v>
       </c>
       <c r="U2" t="n">
-        <v>504.3317450145507</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.2283051741145308</v>
+        <v>0.3592114352753245</v>
+      </c>
+      <c r="V2" t="b">
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.3592114352753245</v>
-      </c>
-      <c r="X2" t="b">
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>
@@ -5482,24 +5218,18 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>0.5230946888267711</v>
       </c>
       <c r="AD2" t="n">
-        <v>15</v>
+        <v>1614</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.5230946888267711</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>1614</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
         <v>92</v>
       </c>
     </row>
@@ -5555,37 +5285,37 @@
         <v>5.682980328985802</v>
       </c>
       <c r="O3" t="n">
-        <v>47</v>
+        <v>13902</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>352.718746745324</v>
       </c>
       <c r="Q3" t="n">
-        <v>13902</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>352.718746745324</v>
+        <v>18589</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>471.62354477283</v>
       </c>
       <c r="T3" t="n">
-        <v>18589</v>
+        <v>0.1754130991075341</v>
       </c>
       <c r="U3" t="n">
-        <v>471.62354477283</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.1754130991075341</v>
+        <v>0.19396209628433</v>
+      </c>
+      <c r="V3" t="b">
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.19396209628433</v>
-      </c>
-      <c r="X3" t="b">
+        <v>2</v>
+      </c>
+      <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
         <v>0</v>
@@ -5594,24 +5324,18 @@
         <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>0.4231481572739687</v>
       </c>
       <c r="AD3" t="n">
-        <v>16</v>
+        <v>666</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.4231481572739687</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>666</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
         <v>64</v>
       </c>
     </row>
@@ -5626,7 +5350,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5707,100 +5431,90 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>laneMinionsFirst10Minutes</t>
+          <t>goldEarned</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>jungleCsBefore10Minutes</t>
+          <t>goldPerMinute</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>goldEarned</t>
+          <t>objectivesStolen</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>goldPerMinute</t>
+          <t>totalDamageDealtToChampions</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>objectivesStolen</t>
+          <t>damagePerMinute</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>totalDamageDealtToChampions</t>
+          <t>teamDamagePercentage</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>damagePerMinute</t>
+          <t>damageTakenOnTeamPercentage</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>teamDamagePercentage</t>
+          <t>firstBloodKill</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>damageTakenOnTeamPercentage</t>
+          <t>soloKills</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>firstBloodKill</t>
+          <t>tripleKills</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>soloKills</t>
+          <t>quadraKills</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>tripleKills</t>
+          <t>pentaKills</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>quadraKills</t>
+          <t>multikills</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>pentaKills</t>
+          <t>visionScore</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>multikills</t>
+          <t>visionScorePerMinute</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>visionScore</t>
+          <t>totalTimeCCDealt</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>visionScorePerMinute</t>
+          <t>effectiveHealAndShielding</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>totalTimeCCDealt</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>effectiveHealAndShielding</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>cs14</t>
         </is>
@@ -5858,33 +5572,33 @@
         <v>5.145302761263908</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>8744</v>
       </c>
       <c r="P2" t="n">
-        <v>55.50000005960464</v>
+        <v>304.0003027488473</v>
       </c>
       <c r="Q2" t="n">
-        <v>8744</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>304.0003027488473</v>
+        <v>11442</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>397.8071518689479</v>
       </c>
       <c r="T2" t="n">
-        <v>11442</v>
+        <v>0.1800827173170022</v>
       </c>
       <c r="U2" t="n">
-        <v>397.8071518689479</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.1800827173170022</v>
+        <v>0.165801482211421</v>
+      </c>
+      <c r="V2" t="b">
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.165801482211421</v>
-      </c>
-      <c r="X2" t="b">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
@@ -5897,24 +5611,18 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>0.7919963307791275</v>
       </c>
       <c r="AD2" t="n">
-        <v>22</v>
+        <v>255</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.7919963307791275</v>
+        <v>6868.1279296875</v>
       </c>
       <c r="AF2" t="n">
-        <v>255</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>6868.1279296875</v>
-      </c>
-      <c r="AH2" t="n">
         <v>87</v>
       </c>
     </row>
@@ -5970,63 +5678,57 @@
         <v>6.672427796978866</v>
       </c>
       <c r="O3" t="n">
-        <v>3</v>
+        <v>16702</v>
       </c>
       <c r="P3" t="n">
-        <v>51.75000005960464</v>
+        <v>423.7465364913411</v>
       </c>
       <c r="Q3" t="n">
-        <v>16702</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>423.7465364913411</v>
+        <v>20762</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>526.7426266892409</v>
       </c>
       <c r="T3" t="n">
-        <v>20762</v>
+        <v>0.1959137909963939</v>
       </c>
       <c r="U3" t="n">
-        <v>526.7426266892409</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.1959137909963939</v>
+        <v>0.3559582621702085</v>
+      </c>
+      <c r="V3" t="b">
+        <v>1</v>
       </c>
       <c r="W3" t="n">
-        <v>0.3559582621702085</v>
-      </c>
-      <c r="X3" t="b">
         <v>1</v>
       </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
       <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
         <v>1</v>
       </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AC3" t="n">
-        <v>1</v>
+        <v>1.090109334523405</v>
       </c>
       <c r="AD3" t="n">
-        <v>42</v>
+        <v>659</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.090109334523405</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>659</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
         <v>87</v>
       </c>
     </row>
@@ -6041,7 +5743,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6122,100 +5824,90 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>laneMinionsFirst10Minutes</t>
+          <t>goldEarned</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>jungleCsBefore10Minutes</t>
+          <t>goldPerMinute</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>goldEarned</t>
+          <t>objectivesStolen</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>goldPerMinute</t>
+          <t>totalDamageDealtToChampions</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>objectivesStolen</t>
+          <t>damagePerMinute</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>totalDamageDealtToChampions</t>
+          <t>teamDamagePercentage</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>damagePerMinute</t>
+          <t>damageTakenOnTeamPercentage</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>teamDamagePercentage</t>
+          <t>firstBloodKill</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>damageTakenOnTeamPercentage</t>
+          <t>soloKills</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>firstBloodKill</t>
+          <t>tripleKills</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>soloKills</t>
+          <t>quadraKills</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>tripleKills</t>
+          <t>pentaKills</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>quadraKills</t>
+          <t>multikills</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>pentaKills</t>
+          <t>visionScore</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>multikills</t>
+          <t>visionScorePerMinute</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>visionScore</t>
+          <t>totalTimeCCDealt</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>visionScorePerMinute</t>
+          <t>effectiveHealAndShielding</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>totalTimeCCDealt</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>effectiveHealAndShielding</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>cs14</t>
         </is>
@@ -6273,34 +5965,34 @@
         <v>4.6585849324957</v>
       </c>
       <c r="O2" t="n">
-        <v>49</v>
+        <v>9417</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>327.4036012716304</v>
       </c>
       <c r="Q2" t="n">
-        <v>9417</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>327.4036012716304</v>
+        <v>16947</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>589.1959688488292</v>
       </c>
       <c r="T2" t="n">
-        <v>16947</v>
+        <v>0.2667222311213637</v>
       </c>
       <c r="U2" t="n">
-        <v>589.1959688488292</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.2667222311213637</v>
+        <v>0.1819065959882141</v>
+      </c>
+      <c r="V2" t="b">
+        <v>1</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1819065959882141</v>
-      </c>
-      <c r="X2" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -6312,24 +6004,18 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>0.4536684066074062</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>455</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.4536684066074062</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>455</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
         <v>60</v>
       </c>
     </row>
@@ -6385,33 +6071,33 @@
         <v>5.809832568472093</v>
       </c>
       <c r="O3" t="n">
-        <v>71</v>
+        <v>13184</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>334.4970667146471</v>
       </c>
       <c r="Q3" t="n">
-        <v>13184</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>334.4970667146471</v>
+        <v>12784</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>324.3487884524318</v>
       </c>
       <c r="T3" t="n">
-        <v>12784</v>
+        <v>0.1206365263244438</v>
       </c>
       <c r="U3" t="n">
-        <v>324.3487884524318</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.1206365263244438</v>
+        <v>0.1355175790501493</v>
+      </c>
+      <c r="V3" t="b">
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1355175790501493</v>
-      </c>
-      <c r="X3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
@@ -6424,24 +6110,18 @@
         <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>0.9113633489948256</v>
       </c>
       <c r="AD3" t="n">
-        <v>35</v>
+        <v>370</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.9113633489948256</v>
+        <v>1550.94091796875</v>
       </c>
       <c r="AF3" t="n">
-        <v>370</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1550.94091796875</v>
-      </c>
-      <c r="AH3" t="n">
         <v>107</v>
       </c>
     </row>
@@ -6456,7 +6136,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6537,100 +6217,90 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>laneMinionsFirst10Minutes</t>
+          <t>goldEarned</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>jungleCsBefore10Minutes</t>
+          <t>goldPerMinute</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>goldEarned</t>
+          <t>objectivesStolen</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>goldPerMinute</t>
+          <t>totalDamageDealtToChampions</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>objectivesStolen</t>
+          <t>damagePerMinute</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>totalDamageDealtToChampions</t>
+          <t>teamDamagePercentage</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>damagePerMinute</t>
+          <t>damageTakenOnTeamPercentage</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>teamDamagePercentage</t>
+          <t>firstBloodKill</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>damageTakenOnTeamPercentage</t>
+          <t>soloKills</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>firstBloodKill</t>
+          <t>tripleKills</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>soloKills</t>
+          <t>quadraKills</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>tripleKills</t>
+          <t>pentaKills</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>quadraKills</t>
+          <t>multikills</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>pentaKills</t>
+          <t>visionScore</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>multikills</t>
+          <t>visionScorePerMinute</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>visionScore</t>
+          <t>totalTimeCCDealt</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>visionScorePerMinute</t>
+          <t>effectiveHealAndShielding</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>totalTimeCCDealt</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>effectiveHealAndShielding</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>cs14</t>
         </is>
@@ -6688,33 +6358,33 @@
         <v>6.292566214788968</v>
       </c>
       <c r="O2" t="n">
-        <v>60</v>
+        <v>11046</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>384.0322496576071</v>
       </c>
       <c r="Q2" t="n">
-        <v>11046</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>384.0322496576071</v>
+        <v>14921</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>518.7438686913038</v>
       </c>
       <c r="T2" t="n">
-        <v>14921</v>
+        <v>0.2348293765624381</v>
       </c>
       <c r="U2" t="n">
-        <v>518.7438686913038</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.2348293765624381</v>
+        <v>0.1595700888370689</v>
+      </c>
+      <c r="V2" t="b">
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1595700888370689</v>
-      </c>
-      <c r="X2" t="b">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
@@ -6724,27 +6394,21 @@
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AC2" t="n">
-        <v>1</v>
+        <v>0.8164555854193114</v>
       </c>
       <c r="AD2" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.8164555854193114</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>42</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
         <v>105</v>
       </c>
     </row>
@@ -6800,63 +6464,57 @@
         <v>7.585763921280155</v>
       </c>
       <c r="O3" t="n">
-        <v>78</v>
+        <v>20415</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>517.9453743292106</v>
       </c>
       <c r="Q3" t="n">
-        <v>20415</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>517.9453743292106</v>
+        <v>46153</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1170.93595805922</v>
       </c>
       <c r="T3" t="n">
-        <v>46153</v>
+        <v>0.435511559030736</v>
       </c>
       <c r="U3" t="n">
-        <v>1170.93595805922</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.435511559030736</v>
+        <v>0.1408103574736145</v>
+      </c>
+      <c r="V3" t="b">
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1408103574736145</v>
-      </c>
-      <c r="X3" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AC3" t="n">
-        <v>5</v>
+        <v>0.6777070635813763</v>
       </c>
       <c r="AD3" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.6777070635813763</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>38</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
         <v>113</v>
       </c>
     </row>
@@ -6871,7 +6529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6952,100 +6610,90 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>laneMinionsFirst10Minutes</t>
+          <t>goldEarned</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>jungleCsBefore10Minutes</t>
+          <t>goldPerMinute</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>goldEarned</t>
+          <t>objectivesStolen</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>goldPerMinute</t>
+          <t>totalDamageDealtToChampions</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>objectivesStolen</t>
+          <t>damagePerMinute</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>totalDamageDealtToChampions</t>
+          <t>teamDamagePercentage</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>damagePerMinute</t>
+          <t>damageTakenOnTeamPercentage</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>teamDamagePercentage</t>
+          <t>firstBloodKill</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>damageTakenOnTeamPercentage</t>
+          <t>soloKills</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>firstBloodKill</t>
+          <t>tripleKills</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>soloKills</t>
+          <t>quadraKills</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>tripleKills</t>
+          <t>pentaKills</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>quadraKills</t>
+          <t>multikills</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>pentaKills</t>
+          <t>visionScore</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>multikills</t>
+          <t>visionScorePerMinute</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>visionScore</t>
+          <t>totalTimeCCDealt</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>visionScorePerMinute</t>
+          <t>effectiveHealAndShielding</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>totalTimeCCDealt</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>effectiveHealAndShielding</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>cs14</t>
         </is>
@@ -7103,33 +6751,33 @@
         <v>1.182029012722789</v>
       </c>
       <c r="O2" t="n">
-        <v>11</v>
+        <v>6202</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>215.6446016439488</v>
       </c>
       <c r="Q2" t="n">
-        <v>6202</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>215.6446016439488</v>
+        <v>5722</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>198.9458615828927</v>
       </c>
       <c r="T2" t="n">
-        <v>5722</v>
+        <v>0.09006050088466516</v>
       </c>
       <c r="U2" t="n">
-        <v>198.9458615828927</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.09006050088466516</v>
+        <v>0.1335103976879715</v>
+      </c>
+      <c r="V2" t="b">
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1335103976879715</v>
-      </c>
-      <c r="X2" t="b">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
@@ -7142,24 +6790,18 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>2.224044504794932</v>
       </c>
       <c r="AD2" t="n">
-        <v>63</v>
+        <v>168</v>
       </c>
       <c r="AE2" t="n">
-        <v>2.224044504794932</v>
+        <v>936.3641357421875</v>
       </c>
       <c r="AF2" t="n">
-        <v>168</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>936.3641357421875</v>
-      </c>
-      <c r="AH2" t="n">
         <v>20</v>
       </c>
     </row>
@@ -7215,33 +6857,33 @@
         <v>0.6596316453287092</v>
       </c>
       <c r="O3" t="n">
-        <v>9</v>
+        <v>11782</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>298.9280208484556</v>
       </c>
       <c r="Q3" t="n">
-        <v>11782</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>298.9280208484556</v>
+        <v>7685</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>194.9940416806821</v>
       </c>
       <c r="T3" t="n">
-        <v>7685</v>
+        <v>0.07252502454089231</v>
       </c>
       <c r="U3" t="n">
-        <v>194.9940416806821</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.07252502454089231</v>
+        <v>0.1737517050216977</v>
+      </c>
+      <c r="V3" t="b">
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1737517050216977</v>
-      </c>
-      <c r="X3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
@@ -7254,24 +6896,18 @@
         <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>2.703707526502291</v>
       </c>
       <c r="AD3" t="n">
-        <v>106</v>
+        <v>172</v>
       </c>
       <c r="AE3" t="n">
-        <v>2.703707526502291</v>
+        <v>7098.3603515625</v>
       </c>
       <c r="AF3" t="n">
-        <v>172</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>7098.3603515625</v>
-      </c>
-      <c r="AH3" t="n">
         <v>13</v>
       </c>
     </row>
@@ -7286,7 +6922,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7367,100 +7003,90 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>laneMinionsFirst10Minutes</t>
+          <t>goldEarned</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>jungleCsBefore10Minutes</t>
+          <t>goldPerMinute</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>goldEarned</t>
+          <t>objectivesStolen</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>goldPerMinute</t>
+          <t>totalDamageDealtToChampions</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>objectivesStolen</t>
+          <t>damagePerMinute</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>totalDamageDealtToChampions</t>
+          <t>teamDamagePercentage</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>damagePerMinute</t>
+          <t>damageTakenOnTeamPercentage</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>teamDamagePercentage</t>
+          <t>firstBloodKill</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>damageTakenOnTeamPercentage</t>
+          <t>soloKills</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>firstBloodKill</t>
+          <t>tripleKills</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>soloKills</t>
+          <t>quadraKills</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>tripleKills</t>
+          <t>pentaKills</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>quadraKills</t>
+          <t>multikills</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>pentaKills</t>
+          <t>visionScore</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>multikills</t>
+          <t>visionScorePerMinute</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>visionScore</t>
+          <t>totalTimeCCDealt</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>visionScorePerMinute</t>
+          <t>effectiveHealAndShielding</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>totalTimeCCDealt</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>effectiveHealAndShielding</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>cs14</t>
         </is>
@@ -7518,63 +7144,57 @@
         <v>8.065609733873153</v>
       </c>
       <c r="O2" t="n">
-        <v>77</v>
+        <v>12525</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>435.4664006580255</v>
       </c>
       <c r="Q2" t="n">
-        <v>12525</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>435.4664006580255</v>
+        <v>23946</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>832.5070126875532</v>
       </c>
       <c r="T2" t="n">
-        <v>23946</v>
+        <v>0.2826854552556181</v>
       </c>
       <c r="U2" t="n">
-        <v>832.5070126875532</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.2826854552556181</v>
+        <v>0.2642651833698157</v>
+      </c>
+      <c r="V2" t="b">
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.2642651833698157</v>
-      </c>
-      <c r="X2" t="b">
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
         <v>1</v>
       </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AC2" t="n">
-        <v>1</v>
+        <v>0.5972095883270454</v>
       </c>
       <c r="AD2" t="n">
-        <v>17</v>
+        <v>168</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.5972095883270454</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>168</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
         <v>109</v>
       </c>
     </row>
@@ -7630,37 +7250,37 @@
         <v>8.143913775019833</v>
       </c>
       <c r="O3" t="n">
-        <v>71</v>
+        <v>14619</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>370.8964744570852</v>
       </c>
       <c r="Q3" t="n">
-        <v>14619</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>370.8964744570852</v>
+        <v>18596</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>471.7910293702768</v>
       </c>
       <c r="T3" t="n">
-        <v>18596</v>
+        <v>0.2080251085354014</v>
       </c>
       <c r="U3" t="n">
-        <v>471.7910293702768</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.2080251085354014</v>
+        <v>0.3260449541548102</v>
+      </c>
+      <c r="V3" t="b">
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.3260449541548102</v>
-      </c>
-      <c r="X3" t="b">
+        <v>1</v>
+      </c>
+      <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
         <v>0</v>
@@ -7669,24 +7289,18 @@
         <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>0.5848773589047548</v>
       </c>
       <c r="AD3" t="n">
-        <v>23</v>
+        <v>2052</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.5848773589047548</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>2052</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
         <v>108</v>
       </c>
     </row>
@@ -7701,7 +7315,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7782,100 +7396,90 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>laneMinionsFirst10Minutes</t>
+          <t>goldEarned</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>jungleCsBefore10Minutes</t>
+          <t>goldPerMinute</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>goldEarned</t>
+          <t>objectivesStolen</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>goldPerMinute</t>
+          <t>totalDamageDealtToChampions</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>objectivesStolen</t>
+          <t>damagePerMinute</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>totalDamageDealtToChampions</t>
+          <t>teamDamagePercentage</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>damagePerMinute</t>
+          <t>damageTakenOnTeamPercentage</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>teamDamagePercentage</t>
+          <t>firstBloodKill</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>damageTakenOnTeamPercentage</t>
+          <t>soloKills</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>firstBloodKill</t>
+          <t>tripleKills</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>soloKills</t>
+          <t>quadraKills</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>tripleKills</t>
+          <t>pentaKills</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>quadraKills</t>
+          <t>multikills</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>pentaKills</t>
+          <t>visionScore</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>multikills</t>
+          <t>visionScorePerMinute</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>visionScore</t>
+          <t>totalTimeCCDealt</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>visionScorePerMinute</t>
+          <t>effectiveHealAndShielding</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>totalTimeCCDealt</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>effectiveHealAndShielding</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>cs14</t>
         </is>
@@ -7933,37 +7537,37 @@
         <v>5.491932761095788</v>
       </c>
       <c r="O2" t="n">
-        <v>69</v>
+        <v>6785</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>295.7671441282451</v>
       </c>
       <c r="Q2" t="n">
-        <v>6785</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>295.7671441282451</v>
+        <v>10470</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>456.3775948564344</v>
       </c>
       <c r="T2" t="n">
-        <v>10470</v>
+        <v>0.3477544821240512</v>
       </c>
       <c r="U2" t="n">
-        <v>456.3775948564344</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.3477544821240512</v>
+        <v>0.1681513800900457</v>
+      </c>
+      <c r="V2" t="b">
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1681513800900457</v>
-      </c>
-      <c r="X2" t="b">
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>
@@ -7972,24 +7576,18 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>0.8359501608546595</v>
       </c>
       <c r="AD2" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.8359501608546595</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
         <v>87</v>
       </c>
     </row>
@@ -8045,37 +7643,37 @@
         <v>4.409955203340664</v>
       </c>
       <c r="O3" t="n">
-        <v>65</v>
+        <v>7615</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>268.6616027119437</v>
       </c>
       <c r="Q3" t="n">
-        <v>7615</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>268.6616027119437</v>
+        <v>18908</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>667.0764905051791</v>
       </c>
       <c r="T3" t="n">
-        <v>18908</v>
+        <v>0.2941501250727037</v>
       </c>
       <c r="U3" t="n">
-        <v>667.0764905051791</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.2941501250727037</v>
+        <v>0.1884032771861891</v>
+      </c>
+      <c r="V3" t="b">
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1884032771861891</v>
-      </c>
-      <c r="X3" t="b">
+        <v>1</v>
+      </c>
+      <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
         <v>0</v>
@@ -8084,24 +7682,18 @@
         <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>0.688425660728533</v>
       </c>
       <c r="AD3" t="n">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.688425660728533</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>43</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
         <v>88</v>
       </c>
     </row>
@@ -8116,7 +7708,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8197,100 +7789,90 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>laneMinionsFirst10Minutes</t>
+          <t>goldEarned</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>jungleCsBefore10Minutes</t>
+          <t>goldPerMinute</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>goldEarned</t>
+          <t>objectivesStolen</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>goldPerMinute</t>
+          <t>totalDamageDealtToChampions</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>objectivesStolen</t>
+          <t>damagePerMinute</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>totalDamageDealtToChampions</t>
+          <t>teamDamagePercentage</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>damagePerMinute</t>
+          <t>damageTakenOnTeamPercentage</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>teamDamagePercentage</t>
+          <t>firstBloodKill</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>damageTakenOnTeamPercentage</t>
+          <t>soloKills</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>firstBloodKill</t>
+          <t>tripleKills</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>soloKills</t>
+          <t>quadraKills</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>tripleKills</t>
+          <t>pentaKills</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>quadraKills</t>
+          <t>multikills</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>pentaKills</t>
+          <t>visionScore</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>multikills</t>
+          <t>visionScorePerMinute</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>visionScore</t>
+          <t>totalTimeCCDealt</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>visionScorePerMinute</t>
+          <t>effectiveHealAndShielding</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>totalTimeCCDealt</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>effectiveHealAndShielding</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>cs14</t>
         </is>
@@ -8348,33 +7930,33 @@
         <v>4.936709406077533</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>10412</v>
       </c>
       <c r="P2" t="n">
-        <v>50.00000005960464</v>
+        <v>361.9978450282347</v>
       </c>
       <c r="Q2" t="n">
-        <v>10412</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>361.9978450282347</v>
+        <v>8105</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>281.7939715650049</v>
       </c>
       <c r="T2" t="n">
-        <v>8105</v>
+        <v>0.09568574910015658</v>
       </c>
       <c r="U2" t="n">
-        <v>281.7939715650049</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.09568574910015658</v>
+        <v>0.2855528784122511</v>
+      </c>
+      <c r="V2" t="b">
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.2855528784122511</v>
-      </c>
-      <c r="X2" t="b">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
@@ -8387,24 +7969,18 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>0.5055110892663008</v>
       </c>
       <c r="AD2" t="n">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.5055110892663008</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>152</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
         <v>65</v>
       </c>
     </row>
@@ -8460,33 +8036,33 @@
         <v>4.439828382020158</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>11094</v>
       </c>
       <c r="P3" t="n">
-        <v>42.25000005960464</v>
+        <v>281.4803872369253</v>
       </c>
       <c r="Q3" t="n">
-        <v>11094</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>281.4803872369253</v>
+        <v>7990</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>202.7226134746965</v>
       </c>
       <c r="T3" t="n">
-        <v>7990</v>
+        <v>0.08938574717485033</v>
       </c>
       <c r="U3" t="n">
-        <v>202.7226134746965</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.08938574717485033</v>
+        <v>0.2459738438101808</v>
+      </c>
+      <c r="V3" t="b">
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.2459738438101808</v>
-      </c>
-      <c r="X3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
@@ -8499,24 +8075,18 @@
         <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>0.5516835077961065</v>
       </c>
       <c r="AD3" t="n">
-        <v>21</v>
+        <v>221</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.5516835077961065</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>221</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
         <v>74</v>
       </c>
     </row>
@@ -8531,7 +8101,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8612,100 +8182,90 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>laneMinionsFirst10Minutes</t>
+          <t>goldEarned</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>jungleCsBefore10Minutes</t>
+          <t>goldPerMinute</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>goldEarned</t>
+          <t>objectivesStolen</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>goldPerMinute</t>
+          <t>totalDamageDealtToChampions</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>objectivesStolen</t>
+          <t>damagePerMinute</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>totalDamageDealtToChampions</t>
+          <t>teamDamagePercentage</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>damagePerMinute</t>
+          <t>damageTakenOnTeamPercentage</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>teamDamagePercentage</t>
+          <t>firstBloodKill</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>damageTakenOnTeamPercentage</t>
+          <t>soloKills</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>firstBloodKill</t>
+          <t>tripleKills</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>soloKills</t>
+          <t>quadraKills</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>tripleKills</t>
+          <t>pentaKills</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>quadraKills</t>
+          <t>multikills</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>pentaKills</t>
+          <t>visionScore</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>multikills</t>
+          <t>visionScorePerMinute</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>visionScore</t>
+          <t>totalTimeCCDealt</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>visionScorePerMinute</t>
+          <t>effectiveHealAndShielding</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>totalTimeCCDealt</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>effectiveHealAndShielding</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>cs14</t>
         </is>
@@ -8763,63 +8323,57 @@
         <v>5.45819279404347</v>
       </c>
       <c r="O2" t="n">
-        <v>71</v>
+        <v>11112</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>386.3289154613657</v>
       </c>
       <c r="Q2" t="n">
-        <v>11112</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>386.3289154613657</v>
+        <v>23285</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>809.5341077135491</v>
       </c>
       <c r="T2" t="n">
-        <v>23285</v>
+        <v>0.2748847929162634</v>
       </c>
       <c r="U2" t="n">
-        <v>809.5341077135491</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.2748847929162634</v>
+        <v>0.1598929038903978</v>
+      </c>
+      <c r="V2" t="b">
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1598929038903978</v>
-      </c>
-      <c r="X2" t="b">
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
         <v>1</v>
       </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AC2" t="n">
-        <v>1</v>
+        <v>1.200601792331882</v>
       </c>
       <c r="AD2" t="n">
-        <v>34</v>
+        <v>713</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.200601792331882</v>
+        <v>2761.70166015625</v>
       </c>
       <c r="AF2" t="n">
-        <v>713</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>2761.70166015625</v>
-      </c>
-      <c r="AH2" t="n">
         <v>95</v>
       </c>
     </row>
@@ -8875,33 +8429,33 @@
         <v>7.357429890204833</v>
       </c>
       <c r="O3" t="n">
-        <v>74</v>
+        <v>13346</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>338.6183770515821</v>
       </c>
       <c r="Q3" t="n">
-        <v>13346</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>338.6183770515821</v>
+        <v>37894</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>961.3925095776771</v>
       </c>
       <c r="T3" t="n">
-        <v>37894</v>
+        <v>0.4239033146029926</v>
       </c>
       <c r="U3" t="n">
-        <v>961.3925095776771</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.4239033146029926</v>
+        <v>0.12148837342991</v>
+      </c>
+      <c r="V3" t="b">
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.12148837342991</v>
-      </c>
-      <c r="X3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
@@ -8914,24 +8468,18 @@
         <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1.028416361375047</v>
       </c>
       <c r="AD3" t="n">
-        <v>40</v>
+        <v>1179</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.028416361375047</v>
+        <v>320.0906982421875</v>
       </c>
       <c r="AF3" t="n">
-        <v>1179</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>320.0906982421875</v>
-      </c>
-      <c r="AH3" t="n">
         <v>119</v>
       </c>
     </row>
@@ -8946,7 +8494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9027,100 +8575,90 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>laneMinionsFirst10Minutes</t>
+          <t>goldEarned</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>jungleCsBefore10Minutes</t>
+          <t>goldPerMinute</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>goldEarned</t>
+          <t>objectivesStolen</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>goldPerMinute</t>
+          <t>totalDamageDealtToChampions</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>objectivesStolen</t>
+          <t>damagePerMinute</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>totalDamageDealtToChampions</t>
+          <t>teamDamagePercentage</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>damagePerMinute</t>
+          <t>damageTakenOnTeamPercentage</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>teamDamagePercentage</t>
+          <t>firstBloodKill</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>damageTakenOnTeamPercentage</t>
+          <t>soloKills</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>firstBloodKill</t>
+          <t>tripleKills</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>soloKills</t>
+          <t>quadraKills</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>tripleKills</t>
+          <t>pentaKills</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>quadraKills</t>
+          <t>multikills</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>pentaKills</t>
+          <t>visionScore</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>multikills</t>
+          <t>visionScorePerMinute</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>visionScore</t>
+          <t>totalTimeCCDealt</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>visionScorePerMinute</t>
+          <t>effectiveHealAndShielding</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>totalTimeCCDealt</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>effectiveHealAndShielding</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>cs14</t>
         </is>
@@ -9178,63 +8716,57 @@
         <v>7.544126345907216</v>
       </c>
       <c r="O2" t="n">
-        <v>65</v>
+        <v>14164</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>492.4331644776451</v>
       </c>
       <c r="Q2" t="n">
-        <v>14164</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>492.4331644776451</v>
+        <v>24228</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>842.3112398887268</v>
       </c>
       <c r="T2" t="n">
-        <v>24228</v>
+        <v>0.286014571272126</v>
       </c>
       <c r="U2" t="n">
-        <v>842.3112398887268</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.286014571272126</v>
+        <v>0.1434211585697965</v>
+      </c>
+      <c r="V2" t="b">
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1434211585697965</v>
-      </c>
-      <c r="X2" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>3</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AC2" t="n">
-        <v>6</v>
+        <v>0.5153997731805597</v>
       </c>
       <c r="AD2" t="n">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.5153997731805597</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>150</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
         <v>118</v>
       </c>
     </row>
@@ -9290,33 +8822,33 @@
         <v>8.473729597684187</v>
       </c>
       <c r="O3" t="n">
-        <v>54</v>
+        <v>14011</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>355.4892789383543</v>
       </c>
       <c r="Q3" t="n">
-        <v>14011</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
-        <v>355.4892789383543</v>
+        <v>19639</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>498.2690063318934</v>
       </c>
       <c r="T3" t="n">
-        <v>19639</v>
+        <v>0.2196999469455129</v>
       </c>
       <c r="U3" t="n">
-        <v>498.2690063318934</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.2196999469455129</v>
+        <v>0.1635043833175246</v>
+      </c>
+      <c r="V3" t="b">
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1635043833175246</v>
-      </c>
-      <c r="X3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
@@ -9329,24 +8861,18 @@
         <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>0.5875667460026589</v>
       </c>
       <c r="AD3" t="n">
-        <v>23</v>
+        <v>301</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.5875667460026589</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>301</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
         <v>94</v>
       </c>
     </row>
@@ -9361,7 +8887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9442,100 +8968,90 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>laneMinionsFirst10Minutes</t>
+          <t>goldEarned</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>jungleCsBefore10Minutes</t>
+          <t>goldPerMinute</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>goldEarned</t>
+          <t>objectivesStolen</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>goldPerMinute</t>
+          <t>totalDamageDealtToChampions</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>objectivesStolen</t>
+          <t>damagePerMinute</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>totalDamageDealtToChampions</t>
+          <t>teamDamagePercentage</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>damagePerMinute</t>
+          <t>damageTakenOnTeamPercentage</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>teamDamagePercentage</t>
+          <t>firstBloodKill</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>damageTakenOnTeamPercentage</t>
+          <t>soloKills</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>firstBloodKill</t>
+          <t>tripleKills</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>soloKills</t>
+          <t>quadraKills</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>tripleKills</t>
+          <t>pentaKills</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>quadraKills</t>
+          <t>multikills</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>pentaKills</t>
+          <t>visionScore</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>multikills</t>
+          <t>visionScorePerMinute</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>visionScore</t>
+          <t>totalTimeCCDealt</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>visionScorePerMinute</t>
+          <t>effectiveHealAndShielding</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>totalTimeCCDealt</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>effectiveHealAndShielding</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>cs14</t>
         </is>
@@ -9593,33 +9109,33 @@
         <v>1.112497894327331</v>
       </c>
       <c r="O2" t="n">
-        <v>17</v>
+        <v>8255</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>287.0173949822395</v>
       </c>
       <c r="Q2" t="n">
-        <v>8255</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>287.0173949822395</v>
+        <v>5144</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>178.8478205141286</v>
       </c>
       <c r="T2" t="n">
-        <v>5144</v>
+        <v>0.06072943145583593</v>
       </c>
       <c r="U2" t="n">
-        <v>178.8478205141286</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.06072943145583593</v>
+        <v>0.1468678757577389</v>
+      </c>
+      <c r="V2" t="b">
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1468678757577389</v>
-      </c>
-      <c r="X2" t="b">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
@@ -9632,24 +9148,18 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>2.529162072334392</v>
       </c>
       <c r="AD2" t="n">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="AE2" t="n">
-        <v>2.529162072334392</v>
+        <v>1968.940185546875</v>
       </c>
       <c r="AF2" t="n">
-        <v>87</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1968.940185546875</v>
-      </c>
-      <c r="AH2" t="n">
         <v>25</v>
       </c>
     </row>
@@ -9705,33 +9215,33 @@
         <v>1.42074508224645</v>
       </c>
       <c r="O3" t="n">
-        <v>15</v>
+        <v>8626</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>218.8541303257285</v>
       </c>
       <c r="Q3" t="n">
-        <v>8626</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>218.8541303257285</v>
+        <v>5272</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.7771701345825</v>
       </c>
       <c r="T3" t="n">
-        <v>5272</v>
+        <v>0.05898588274124278</v>
       </c>
       <c r="U3" t="n">
-        <v>133.7771701345825</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.05898588274124278</v>
+        <v>0.1429884452875744</v>
+      </c>
+      <c r="V3" t="b">
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1429884452875744</v>
-      </c>
-      <c r="X3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
@@ -9744,24 +9254,18 @@
         <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>3.522353533071811</v>
       </c>
       <c r="AD3" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="AE3" t="n">
-        <v>3.522353533071811</v>
+        <v>2239.38427734375</v>
       </c>
       <c r="AF3" t="n">
-        <v>131</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>2239.38427734375</v>
-      </c>
-      <c r="AH3" t="n">
         <v>27</v>
       </c>
     </row>
@@ -9776,7 +9280,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AF11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9857,100 +9361,90 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>laneMinionsFirst10Minutes</t>
+          <t>goldEarned</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>jungleCsBefore10Minutes</t>
+          <t>goldPerMinute</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>goldEarned</t>
+          <t>objectivesStolen</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>goldPerMinute</t>
+          <t>totalDamageDealtToChampions</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>objectivesStolen</t>
+          <t>damagePerMinute</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>totalDamageDealtToChampions</t>
+          <t>teamDamagePercentage</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>damagePerMinute</t>
+          <t>damageTakenOnTeamPercentage</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>teamDamagePercentage</t>
+          <t>firstBloodKill</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>damageTakenOnTeamPercentage</t>
+          <t>soloKills</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>firstBloodKill</t>
+          <t>tripleKills</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>soloKills</t>
+          <t>quadraKills</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>tripleKills</t>
+          <t>pentaKills</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>quadraKills</t>
+          <t>multikills</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>pentaKills</t>
+          <t>visionScore</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>multikills</t>
+          <t>visionScorePerMinute</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>visionScore</t>
+          <t>totalTimeCCDealt</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>visionScorePerMinute</t>
+          <t>effectiveHealAndShielding</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>totalTimeCCDealt</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>effectiveHealAndShielding</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>cs14</t>
         </is>
@@ -10008,37 +9502,37 @@
         <v>8.143913775019833</v>
       </c>
       <c r="O2" t="n">
-        <v>71</v>
+        <v>14619</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>370.8964744570852</v>
       </c>
       <c r="Q2" t="n">
-        <v>14619</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>370.8964744570852</v>
+        <v>18596</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>471.7910293702768</v>
       </c>
       <c r="T2" t="n">
-        <v>18596</v>
+        <v>0.2080251085354014</v>
       </c>
       <c r="U2" t="n">
-        <v>471.7910293702768</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.2080251085354014</v>
+        <v>0.3260449541548102</v>
+      </c>
+      <c r="V2" t="b">
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.3260449541548102</v>
-      </c>
-      <c r="X2" t="b">
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>
@@ -10047,24 +9541,18 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>0.5848773589047548</v>
       </c>
       <c r="AD2" t="n">
-        <v>23</v>
+        <v>2052</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.5848773589047548</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>2052</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
         <v>108</v>
       </c>
     </row>
@@ -10120,33 +9608,33 @@
         <v>4.439828382020158</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>11094</v>
       </c>
       <c r="P3" t="n">
-        <v>42.25000005960464</v>
+        <v>281.4803872369253</v>
       </c>
       <c r="Q3" t="n">
-        <v>11094</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>281.4803872369253</v>
+        <v>7990</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>202.7226134746965</v>
       </c>
       <c r="T3" t="n">
-        <v>7990</v>
+        <v>0.08938574717485033</v>
       </c>
       <c r="U3" t="n">
-        <v>202.7226134746965</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.08938574717485033</v>
+        <v>0.2459738438101808</v>
+      </c>
+      <c r="V3" t="b">
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.2459738438101808</v>
-      </c>
-      <c r="X3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
@@ -10159,24 +9647,18 @@
         <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>0.5516835077961065</v>
       </c>
       <c r="AD3" t="n">
-        <v>21</v>
+        <v>221</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.5516835077961065</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>221</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
         <v>74</v>
       </c>
     </row>
@@ -10232,33 +9714,33 @@
         <v>7.357429890204833</v>
       </c>
       <c r="O4" t="n">
-        <v>74</v>
+        <v>13346</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>338.6183770515821</v>
       </c>
       <c r="Q4" t="n">
-        <v>13346</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>338.6183770515821</v>
+        <v>37894</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>961.3925095776771</v>
       </c>
       <c r="T4" t="n">
-        <v>37894</v>
+        <v>0.4239033146029926</v>
       </c>
       <c r="U4" t="n">
-        <v>961.3925095776771</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.4239033146029926</v>
+        <v>0.12148837342991</v>
+      </c>
+      <c r="V4" t="b">
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0.12148837342991</v>
-      </c>
-      <c r="X4" t="b">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
@@ -10271,24 +9753,18 @@
         <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>1.028416361375047</v>
       </c>
       <c r="AD4" t="n">
-        <v>40</v>
+        <v>1179</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.028416361375047</v>
+        <v>320.0906982421875</v>
       </c>
       <c r="AF4" t="n">
-        <v>1179</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>320.0906982421875</v>
-      </c>
-      <c r="AH4" t="n">
         <v>119</v>
       </c>
     </row>
@@ -10344,33 +9820,33 @@
         <v>8.473729597684187</v>
       </c>
       <c r="O5" t="n">
-        <v>54</v>
+        <v>14011</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>355.4892789383543</v>
       </c>
       <c r="Q5" t="n">
-        <v>14011</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
-        <v>355.4892789383543</v>
+        <v>19639</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>498.2690063318934</v>
       </c>
       <c r="T5" t="n">
-        <v>19639</v>
+        <v>0.2196999469455129</v>
       </c>
       <c r="U5" t="n">
-        <v>498.2690063318934</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.2196999469455129</v>
+        <v>0.1635043833175246</v>
+      </c>
+      <c r="V5" t="b">
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1635043833175246</v>
-      </c>
-      <c r="X5" t="b">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
@@ -10383,24 +9859,18 @@
         <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>0.5875667460026589</v>
       </c>
       <c r="AD5" t="n">
-        <v>23</v>
+        <v>301</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.5875667460026589</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>301</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="n">
         <v>94</v>
       </c>
     </row>
@@ -10456,33 +9926,33 @@
         <v>1.42074508224645</v>
       </c>
       <c r="O6" t="n">
-        <v>15</v>
+        <v>8626</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>218.8541303257285</v>
       </c>
       <c r="Q6" t="n">
-        <v>8626</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>218.8541303257285</v>
+        <v>5272</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.7771701345825</v>
       </c>
       <c r="T6" t="n">
-        <v>5272</v>
+        <v>0.05898588274124278</v>
       </c>
       <c r="U6" t="n">
-        <v>133.7771701345825</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.05898588274124278</v>
+        <v>0.1429884452875744</v>
+      </c>
+      <c r="V6" t="b">
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1429884452875744</v>
-      </c>
-      <c r="X6" t="b">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
@@ -10495,24 +9965,18 @@
         <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>3.522353533071811</v>
       </c>
       <c r="AD6" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="AE6" t="n">
-        <v>3.522353533071811</v>
+        <v>2239.38427734375</v>
       </c>
       <c r="AF6" t="n">
-        <v>131</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>2239.38427734375</v>
-      </c>
-      <c r="AH6" t="n">
         <v>27</v>
       </c>
     </row>
@@ -10568,37 +10032,37 @@
         <v>5.682980328985802</v>
       </c>
       <c r="O7" t="n">
-        <v>47</v>
+        <v>13902</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>352.718746745324</v>
       </c>
       <c r="Q7" t="n">
-        <v>13902</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>352.718746745324</v>
+        <v>18589</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>471.62354477283</v>
       </c>
       <c r="T7" t="n">
-        <v>18589</v>
+        <v>0.1754130991075341</v>
       </c>
       <c r="U7" t="n">
-        <v>471.62354477283</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0.1754130991075341</v>
+        <v>0.19396209628433</v>
+      </c>
+      <c r="V7" t="b">
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0.19396209628433</v>
-      </c>
-      <c r="X7" t="b">
+        <v>2</v>
+      </c>
+      <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z7" t="n">
         <v>0</v>
@@ -10607,24 +10071,18 @@
         <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>0.4231481572739687</v>
       </c>
       <c r="AD7" t="n">
-        <v>16</v>
+        <v>666</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.4231481572739687</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>666</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH7" t="n">
         <v>64</v>
       </c>
     </row>
@@ -10680,63 +10138,57 @@
         <v>6.672427796978866</v>
       </c>
       <c r="O8" t="n">
-        <v>3</v>
+        <v>16702</v>
       </c>
       <c r="P8" t="n">
-        <v>51.75000005960464</v>
+        <v>423.7465364913411</v>
       </c>
       <c r="Q8" t="n">
-        <v>16702</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>423.7465364913411</v>
+        <v>20762</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>526.7426266892409</v>
       </c>
       <c r="T8" t="n">
-        <v>20762</v>
+        <v>0.1959137909963939</v>
       </c>
       <c r="U8" t="n">
-        <v>526.7426266892409</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0.1959137909963939</v>
+        <v>0.3559582621702085</v>
+      </c>
+      <c r="V8" t="b">
+        <v>1</v>
       </c>
       <c r="W8" t="n">
-        <v>0.3559582621702085</v>
-      </c>
-      <c r="X8" t="b">
         <v>1</v>
       </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
       <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
         <v>1</v>
       </c>
-      <c r="Z8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0</v>
-      </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AC8" t="n">
-        <v>1</v>
+        <v>1.090109334523405</v>
       </c>
       <c r="AD8" t="n">
-        <v>42</v>
+        <v>659</v>
       </c>
       <c r="AE8" t="n">
-        <v>1.090109334523405</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>659</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH8" t="n">
         <v>87</v>
       </c>
     </row>
@@ -10792,33 +10244,33 @@
         <v>5.809832568472093</v>
       </c>
       <c r="O9" t="n">
-        <v>71</v>
+        <v>13184</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>334.4970667146471</v>
       </c>
       <c r="Q9" t="n">
-        <v>13184</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>334.4970667146471</v>
+        <v>12784</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>324.3487884524318</v>
       </c>
       <c r="T9" t="n">
-        <v>12784</v>
+        <v>0.1206365263244438</v>
       </c>
       <c r="U9" t="n">
-        <v>324.3487884524318</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0.1206365263244438</v>
+        <v>0.1355175790501493</v>
+      </c>
+      <c r="V9" t="b">
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0.1355175790501493</v>
-      </c>
-      <c r="X9" t="b">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
@@ -10831,24 +10283,18 @@
         <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>0.9113633489948256</v>
       </c>
       <c r="AD9" t="n">
-        <v>35</v>
+        <v>370</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.9113633489948256</v>
+        <v>1550.94091796875</v>
       </c>
       <c r="AF9" t="n">
-        <v>370</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>1550.94091796875</v>
-      </c>
-      <c r="AH9" t="n">
         <v>107</v>
       </c>
     </row>
@@ -10904,63 +10350,57 @@
         <v>7.585763921280155</v>
       </c>
       <c r="O10" t="n">
-        <v>78</v>
+        <v>20415</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>517.9453743292106</v>
       </c>
       <c r="Q10" t="n">
-        <v>20415</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>517.9453743292106</v>
+        <v>46153</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>1170.93595805922</v>
       </c>
       <c r="T10" t="n">
-        <v>46153</v>
+        <v>0.435511559030736</v>
       </c>
       <c r="U10" t="n">
-        <v>1170.93595805922</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0.435511559030736</v>
+        <v>0.1408103574736145</v>
+      </c>
+      <c r="V10" t="b">
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1408103574736145</v>
-      </c>
-      <c r="X10" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AC10" t="n">
-        <v>5</v>
+        <v>0.6777070635813763</v>
       </c>
       <c r="AD10" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.6777070635813763</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>38</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH10" t="n">
         <v>113</v>
       </c>
     </row>
@@ -11016,33 +10456,33 @@
         <v>0.6596316453287092</v>
       </c>
       <c r="O11" t="n">
-        <v>9</v>
+        <v>11782</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>298.9280208484556</v>
       </c>
       <c r="Q11" t="n">
-        <v>11782</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>298.9280208484556</v>
+        <v>7685</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>194.9940416806821</v>
       </c>
       <c r="T11" t="n">
-        <v>7685</v>
+        <v>0.07252502454089231</v>
       </c>
       <c r="U11" t="n">
-        <v>194.9940416806821</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0.07252502454089231</v>
+        <v>0.1737517050216977</v>
+      </c>
+      <c r="V11" t="b">
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0.1737517050216977</v>
-      </c>
-      <c r="X11" t="b">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
@@ -11055,24 +10495,18 @@
         <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>2.703707526502291</v>
       </c>
       <c r="AD11" t="n">
-        <v>106</v>
+        <v>172</v>
       </c>
       <c r="AE11" t="n">
-        <v>2.703707526502291</v>
+        <v>7098.3603515625</v>
       </c>
       <c r="AF11" t="n">
-        <v>172</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>7098.3603515625</v>
-      </c>
-      <c r="AH11" t="n">
         <v>13</v>
       </c>
     </row>
@@ -11087,7 +10521,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11168,100 +10602,90 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>laneMinionsFirst10Minutes</t>
+          <t>goldEarned</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>jungleCsBefore10Minutes</t>
+          <t>goldPerMinute</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>goldEarned</t>
+          <t>objectivesStolen</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>goldPerMinute</t>
+          <t>totalDamageDealtToChampions</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>objectivesStolen</t>
+          <t>damagePerMinute</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>totalDamageDealtToChampions</t>
+          <t>teamDamagePercentage</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>damagePerMinute</t>
+          <t>damageTakenOnTeamPercentage</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>teamDamagePercentage</t>
+          <t>firstBloodKill</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>damageTakenOnTeamPercentage</t>
+          <t>soloKills</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>firstBloodKill</t>
+          <t>tripleKills</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>soloKills</t>
+          <t>quadraKills</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>tripleKills</t>
+          <t>pentaKills</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>quadraKills</t>
+          <t>multikills</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>pentaKills</t>
+          <t>visionScore</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>multikills</t>
+          <t>visionScorePerMinute</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>visionScore</t>
+          <t>totalTimeCCDealt</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>visionScorePerMinute</t>
+          <t>effectiveHealAndShielding</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>totalTimeCCDealt</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>effectiveHealAndShielding</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>cs14</t>
         </is>
@@ -11319,37 +10743,37 @@
         <v>5.797040136712221</v>
       </c>
       <c r="O2" t="n">
+        <v>7130</v>
+      </c>
+      <c r="P2" t="n">
+        <v>310.7827856853681</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5022</v>
+      </c>
+      <c r="S2" t="n">
+        <v>218.9043263560533</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.1668025808116429</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.3559174110813462</v>
+      </c>
+      <c r="V2" t="b">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>1</v>
       </c>
-      <c r="P2" t="n">
-        <v>68.00000008940697</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>7130</v>
-      </c>
-      <c r="R2" t="n">
-        <v>310.7827856853681</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>5022</v>
-      </c>
-      <c r="U2" t="n">
-        <v>218.9043263560533</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.1668025808116429</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.3559174110813462</v>
-      </c>
-      <c r="X2" t="b">
+      <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>
@@ -11358,24 +10782,18 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>0.7452698175502628</v>
       </c>
       <c r="AD2" t="n">
-        <v>17</v>
+        <v>229</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.7452698175502628</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>229</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
         <v>84</v>
       </c>
     </row>
@@ -11431,33 +10849,33 @@
         <v>5.362505527262248</v>
       </c>
       <c r="O3" t="n">
-        <v>6</v>
+        <v>10387</v>
       </c>
       <c r="P3" t="n">
-        <v>58.00000008940697</v>
+        <v>366.4685866030602</v>
       </c>
       <c r="Q3" t="n">
-        <v>10387</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>366.4685866030602</v>
+        <v>15844</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>559.0045779172366</v>
       </c>
       <c r="T3" t="n">
-        <v>15844</v>
+        <v>0.246495370247638</v>
       </c>
       <c r="U3" t="n">
-        <v>559.0045779172366</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.246495370247638</v>
+        <v>0.2831280767853755</v>
+      </c>
+      <c r="V3" t="b">
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.2831280767853755</v>
-      </c>
-      <c r="X3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
@@ -11467,27 +10885,21 @@
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AC3" t="n">
-        <v>1</v>
+        <v>0.6653344957542048</v>
       </c>
       <c r="AD3" t="n">
-        <v>18</v>
+        <v>1599</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.6653344957542048</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>1599</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
         <v>76</v>
       </c>
     </row>
@@ -11502,7 +10914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11583,100 +10995,90 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>laneMinionsFirst10Minutes</t>
+          <t>goldEarned</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>jungleCsBefore10Minutes</t>
+          <t>goldPerMinute</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>goldEarned</t>
+          <t>objectivesStolen</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>goldPerMinute</t>
+          <t>totalDamageDealtToChampions</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>objectivesStolen</t>
+          <t>damagePerMinute</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>totalDamageDealtToChampions</t>
+          <t>teamDamagePercentage</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>damagePerMinute</t>
+          <t>damageTakenOnTeamPercentage</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>teamDamagePercentage</t>
+          <t>firstBloodKill</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>damageTakenOnTeamPercentage</t>
+          <t>soloKills</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>firstBloodKill</t>
+          <t>tripleKills</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>soloKills</t>
+          <t>quadraKills</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>tripleKills</t>
+          <t>pentaKills</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>quadraKills</t>
+          <t>multikills</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>pentaKills</t>
+          <t>visionScore</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>multikills</t>
+          <t>visionScorePerMinute</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>visionScore</t>
+          <t>totalTimeCCDealt</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>visionScorePerMinute</t>
+          <t>effectiveHealAndShielding</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>totalTimeCCDealt</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>effectiveHealAndShielding</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>cs14</t>
         </is>
@@ -11734,33 +11136,33 @@
         <v>7.976378533972455</v>
       </c>
       <c r="O2" t="n">
-        <v>80</v>
+        <v>6989</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>304.6695925028424</v>
       </c>
       <c r="Q2" t="n">
-        <v>6989</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>304.6695925028424</v>
+        <v>8806</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>383.8453395621343</v>
       </c>
       <c r="T2" t="n">
-        <v>8806</v>
+        <v>0.2924857372044118</v>
       </c>
       <c r="U2" t="n">
-        <v>383.8453395621343</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.2924857372044118</v>
+        <v>0.1559476791077273</v>
+      </c>
+      <c r="V2" t="b">
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1559476791077273</v>
-      </c>
-      <c r="X2" t="b">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
@@ -11773,24 +11175,18 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>0.6578091743770265</v>
       </c>
       <c r="AD2" t="n">
-        <v>15</v>
+        <v>210</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.6578091743770265</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>210</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
         <v>110</v>
       </c>
     </row>
@@ -11846,33 +11242,33 @@
         <v>6.738411550704535</v>
       </c>
       <c r="O3" t="n">
-        <v>81</v>
+        <v>8999</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>317.4853881624791</v>
       </c>
       <c r="Q3" t="n">
-        <v>8999</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>317.4853881624791</v>
+        <v>12914</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>455.6062531671345</v>
       </c>
       <c r="T3" t="n">
-        <v>12914</v>
+        <v>0.2009014532224442</v>
       </c>
       <c r="U3" t="n">
-        <v>455.6062531671345</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.2009014532224442</v>
+        <v>0.2000418558110535</v>
+      </c>
+      <c r="V3" t="b">
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.2000418558110535</v>
-      </c>
-      <c r="X3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
@@ -11885,24 +11281,18 @@
         <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>0.5845356728074993</v>
       </c>
       <c r="AD3" t="n">
-        <v>16</v>
+        <v>810</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.5845356728074993</v>
+        <v>180.1333160400391</v>
       </c>
       <c r="AF3" t="n">
-        <v>810</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>180.1333160400391</v>
-      </c>
-      <c r="AH3" t="n">
         <v>117</v>
       </c>
     </row>
@@ -11917,7 +11307,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11998,100 +11388,90 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>laneMinionsFirst10Minutes</t>
+          <t>goldEarned</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>jungleCsBefore10Minutes</t>
+          <t>goldPerMinute</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>goldEarned</t>
+          <t>objectivesStolen</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>goldPerMinute</t>
+          <t>totalDamageDealtToChampions</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>objectivesStolen</t>
+          <t>damagePerMinute</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>totalDamageDealtToChampions</t>
+          <t>teamDamagePercentage</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>damagePerMinute</t>
+          <t>damageTakenOnTeamPercentage</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>teamDamagePercentage</t>
+          <t>firstBloodKill</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>damageTakenOnTeamPercentage</t>
+          <t>soloKills</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>firstBloodKill</t>
+          <t>tripleKills</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>soloKills</t>
+          <t>quadraKills</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>tripleKills</t>
+          <t>pentaKills</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>quadraKills</t>
+          <t>multikills</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>pentaKills</t>
+          <t>visionScore</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>multikills</t>
+          <t>visionScorePerMinute</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>visionScore</t>
+          <t>totalTimeCCDealt</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>visionScorePerMinute</t>
+          <t>effectiveHealAndShielding</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>totalTimeCCDealt</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>effectiveHealAndShielding</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>cs14</t>
         </is>
@@ -12149,33 +11529,33 @@
         <v>5.840626904657426</v>
       </c>
       <c r="O2" t="n">
-        <v>47</v>
+        <v>6086</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>265.2999720519455</v>
       </c>
       <c r="Q2" t="n">
-        <v>6086</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>265.2999720519455</v>
+        <v>3579</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>156.0220814565943</v>
       </c>
       <c r="T2" t="n">
-        <v>3579</v>
+        <v>0.1188870329051157</v>
       </c>
       <c r="U2" t="n">
-        <v>156.0220814565943</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.1188870329051157</v>
+        <v>0.1527776180570942</v>
+      </c>
+      <c r="V2" t="b">
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1527776180570942</v>
-      </c>
-      <c r="X2" t="b">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
@@ -12188,24 +11568,18 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>0.5879980845816721</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>431</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.5879980845816721</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>431</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
         <v>86</v>
       </c>
     </row>
@@ -12261,33 +11635,33 @@
         <v>5.64474266027605</v>
       </c>
       <c r="O3" t="n">
-        <v>45</v>
+        <v>9243</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>326.1049556823836</v>
       </c>
       <c r="Q3" t="n">
-        <v>9243</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>326.1049556823836</v>
+        <v>12737</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>449.3608608270534</v>
       </c>
       <c r="T3" t="n">
-        <v>12737</v>
+        <v>0.1981475217556469</v>
       </c>
       <c r="U3" t="n">
-        <v>449.3608608270534</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.1981475217556469</v>
+        <v>0.1676849804033957</v>
+      </c>
+      <c r="V3" t="b">
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1676849804033957</v>
-      </c>
-      <c r="X3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
@@ -12300,24 +11674,18 @@
         <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>0.4502576980529724</v>
       </c>
       <c r="AD3" t="n">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.4502576980529724</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>63</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
         <v>77</v>
       </c>
     </row>
@@ -12332,7 +11700,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12413,100 +11781,90 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>laneMinionsFirst10Minutes</t>
+          <t>goldEarned</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>jungleCsBefore10Minutes</t>
+          <t>goldPerMinute</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>goldEarned</t>
+          <t>objectivesStolen</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>goldPerMinute</t>
+          <t>totalDamageDealtToChampions</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>objectivesStolen</t>
+          <t>damagePerMinute</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>totalDamageDealtToChampions</t>
+          <t>teamDamagePercentage</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>damagePerMinute</t>
+          <t>damageTakenOnTeamPercentage</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>teamDamagePercentage</t>
+          <t>firstBloodKill</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>damageTakenOnTeamPercentage</t>
+          <t>soloKills</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>firstBloodKill</t>
+          <t>tripleKills</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>soloKills</t>
+          <t>quadraKills</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>tripleKills</t>
+          <t>pentaKills</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>quadraKills</t>
+          <t>multikills</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>pentaKills</t>
+          <t>visionScore</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>multikills</t>
+          <t>visionScorePerMinute</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>visionScore</t>
+          <t>totalTimeCCDealt</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>visionScorePerMinute</t>
+          <t>effectiveHealAndShielding</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>totalTimeCCDealt</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>effectiveHealAndShielding</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>cs14</t>
         </is>
@@ -12564,33 +11922,33 @@
         <v>1.046082430684912</v>
       </c>
       <c r="O2" t="n">
-        <v>11</v>
+        <v>4247</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>185.1297528706928</v>
       </c>
       <c r="Q2" t="n">
-        <v>4247</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>185.1297528706928</v>
+        <v>2230</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>97.20640964557769</v>
       </c>
       <c r="T2" t="n">
-        <v>2230</v>
+        <v>0.07407016695477828</v>
       </c>
       <c r="U2" t="n">
-        <v>97.20640964557769</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.07407016695477828</v>
+        <v>0.1672059116637865</v>
+      </c>
+      <c r="V2" t="b">
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1672059116637865</v>
-      </c>
-      <c r="X2" t="b">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
@@ -12603,24 +11961,18 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>0.7964751748991281</v>
       </c>
       <c r="AD2" t="n">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.7964751748991281</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>88</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
         <v>18</v>
       </c>
     </row>
@@ -12676,33 +12028,33 @@
         <v>0.670313190907781</v>
       </c>
       <c r="O3" t="n">
-        <v>15</v>
+        <v>6834</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>241.1089605625218</v>
       </c>
       <c r="Q3" t="n">
-        <v>6834</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>241.1089605625218</v>
+        <v>3876</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>136.7614618604506</v>
       </c>
       <c r="T3" t="n">
-        <v>3876</v>
+        <v>0.06030552970156729</v>
       </c>
       <c r="U3" t="n">
-        <v>136.7614618604506</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.06030552970156729</v>
+        <v>0.1607418098139862</v>
+      </c>
+      <c r="V3" t="b">
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1607418098139862</v>
-      </c>
-      <c r="X3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
@@ -12715,24 +12067,18 @@
         <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>0.9734797118441764</v>
       </c>
       <c r="AD3" t="n">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.9734797118441764</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>73</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
         <v>16</v>
       </c>
     </row>
@@ -12747,7 +12093,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12828,100 +12174,90 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>laneMinionsFirst10Minutes</t>
+          <t>goldEarned</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>jungleCsBefore10Minutes</t>
+          <t>goldPerMinute</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>goldEarned</t>
+          <t>objectivesStolen</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>goldPerMinute</t>
+          <t>totalDamageDealtToChampions</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>objectivesStolen</t>
+          <t>damagePerMinute</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>totalDamageDealtToChampions</t>
+          <t>teamDamagePercentage</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>damagePerMinute</t>
+          <t>damageTakenOnTeamPercentage</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>teamDamagePercentage</t>
+          <t>firstBloodKill</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>damageTakenOnTeamPercentage</t>
+          <t>soloKills</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>firstBloodKill</t>
+          <t>tripleKills</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>soloKills</t>
+          <t>quadraKills</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>tripleKills</t>
+          <t>pentaKills</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>quadraKills</t>
+          <t>multikills</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>pentaKills</t>
+          <t>visionScore</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>multikills</t>
+          <t>visionScorePerMinute</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>visionScore</t>
+          <t>totalTimeCCDealt</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>visionScorePerMinute</t>
+          <t>effectiveHealAndShielding</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>totalTimeCCDealt</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>effectiveHealAndShielding</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>cs14</t>
         </is>
@@ -12979,63 +12315,57 @@
         <v>6.62518872767111</v>
       </c>
       <c r="O2" t="n">
-        <v>59</v>
+        <v>10645</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>464.0151118087547</v>
       </c>
       <c r="Q2" t="n">
-        <v>10645</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>464.0151118087547</v>
+        <v>5730</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>249.7705684937496</v>
       </c>
       <c r="T2" t="n">
-        <v>5730</v>
+        <v>0.1037572279555131</v>
       </c>
       <c r="U2" t="n">
-        <v>249.7705684937496</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.1037572279555131</v>
+        <v>0.2253657755496423</v>
+      </c>
+      <c r="V2" t="b">
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.2253657755496423</v>
-      </c>
-      <c r="X2" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC2" t="n">
-        <v>2</v>
+        <v>0.4574331068097622</v>
       </c>
       <c r="AD2" t="n">
-        <v>10</v>
+        <v>395</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.4574331068097622</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>395</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
         <v>92</v>
       </c>
     </row>
@@ -13091,33 +12421,33 @@
         <v>5.221386960755346</v>
       </c>
       <c r="O3" t="n">
-        <v>44</v>
+        <v>9730</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>343.2848319491478</v>
       </c>
       <c r="Q3" t="n">
-        <v>9730</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>343.2848319491478</v>
+        <v>13336</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>470.4903687700346</v>
       </c>
       <c r="T3" t="n">
-        <v>13336</v>
+        <v>0.1526415358403712</v>
       </c>
       <c r="U3" t="n">
-        <v>470.4903687700346</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.1526415358403712</v>
+        <v>0.2654554747859377</v>
+      </c>
+      <c r="V3" t="b">
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.2654554747859377</v>
-      </c>
-      <c r="X3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
@@ -13127,27 +12457,21 @@
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AC3" t="n">
-        <v>1</v>
+        <v>0.6633365712555721</v>
       </c>
       <c r="AD3" t="n">
-        <v>18</v>
+        <v>384</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.6633365712555721</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>384</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
         <v>69</v>
       </c>
     </row>
@@ -13162,7 +12486,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13243,100 +12567,90 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>laneMinionsFirst10Minutes</t>
+          <t>goldEarned</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>jungleCsBefore10Minutes</t>
+          <t>goldPerMinute</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>goldEarned</t>
+          <t>objectivesStolen</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>goldPerMinute</t>
+          <t>totalDamageDealtToChampions</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>objectivesStolen</t>
+          <t>damagePerMinute</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>totalDamageDealtToChampions</t>
+          <t>teamDamagePercentage</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>damagePerMinute</t>
+          <t>damageTakenOnTeamPercentage</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>teamDamagePercentage</t>
+          <t>firstBloodKill</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>damageTakenOnTeamPercentage</t>
+          <t>soloKills</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>firstBloodKill</t>
+          <t>tripleKills</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>soloKills</t>
+          <t>quadraKills</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>tripleKills</t>
+          <t>pentaKills</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>quadraKills</t>
+          <t>multikills</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>pentaKills</t>
+          <t>visionScore</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>multikills</t>
+          <t>visionScorePerMinute</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>visionScore</t>
+          <t>totalTimeCCDealt</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>visionScorePerMinute</t>
+          <t>effectiveHealAndShielding</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>totalTimeCCDealt</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>effectiveHealAndShielding</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>cs14</t>
         </is>
@@ -13394,33 +12708,33 @@
         <v>6.62518872767111</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>10251</v>
       </c>
       <c r="P2" t="n">
-        <v>74.00000008940697</v>
+        <v>446.8102567272589</v>
       </c>
       <c r="Q2" t="n">
-        <v>10251</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>446.8102567272589</v>
+        <v>15568</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>678.5661671510776</v>
       </c>
       <c r="T2" t="n">
-        <v>15568</v>
+        <v>0.2818832695644646</v>
       </c>
       <c r="U2" t="n">
-        <v>678.5661671510776</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.2818832695644646</v>
+        <v>0.4030764449550622</v>
+      </c>
+      <c r="V2" t="b">
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.4030764449550622</v>
-      </c>
-      <c r="X2" t="b">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
@@ -13430,27 +12744,21 @@
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC2" t="n">
-        <v>1</v>
+        <v>0.4551184991900066</v>
       </c>
       <c r="AD2" t="n">
-        <v>10</v>
+        <v>383</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.4551184991900066</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>383</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
         <v>86</v>
       </c>
     </row>
@@ -13506,37 +12814,37 @@
         <v>6.562013342570908</v>
       </c>
       <c r="O3" t="n">
+        <v>11330</v>
+      </c>
+      <c r="P3" t="n">
+        <v>399.7518621808982</v>
+      </c>
+      <c r="Q3" t="n">
         <v>1</v>
       </c>
-      <c r="P3" t="n">
-        <v>60.00000005960464</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>11330</v>
-      </c>
       <c r="R3" t="n">
-        <v>399.7518621808982</v>
+        <v>13717</v>
       </c>
       <c r="S3" t="n">
+        <v>483.9507923505312</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.1570085109471309</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.338792958075351</v>
+      </c>
+      <c r="V3" t="b">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
         <v>1</v>
       </c>
-      <c r="T3" t="n">
-        <v>13717</v>
-      </c>
-      <c r="U3" t="n">
-        <v>483.9507923505312</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.1570085109471309</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.338792958075351</v>
-      </c>
-      <c r="X3" t="b">
+      <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
         <v>0</v>
@@ -13545,24 +12853,18 @@
         <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>0.584781350701289</v>
       </c>
       <c r="AD3" t="n">
-        <v>16</v>
+        <v>363</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.584781350701289</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>363</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
         <v>73</v>
       </c>
     </row>
@@ -13577,7 +12879,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13658,100 +12960,90 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>laneMinionsFirst10Minutes</t>
+          <t>goldEarned</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>jungleCsBefore10Minutes</t>
+          <t>goldPerMinute</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>goldEarned</t>
+          <t>objectivesStolen</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>goldPerMinute</t>
+          <t>totalDamageDealtToChampions</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>objectivesStolen</t>
+          <t>damagePerMinute</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>totalDamageDealtToChampions</t>
+          <t>teamDamagePercentage</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>damagePerMinute</t>
+          <t>damageTakenOnTeamPercentage</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>teamDamagePercentage</t>
+          <t>firstBloodKill</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>damageTakenOnTeamPercentage</t>
+          <t>soloKills</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>firstBloodKill</t>
+          <t>tripleKills</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>soloKills</t>
+          <t>quadraKills</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>tripleKills</t>
+          <t>pentaKills</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>quadraKills</t>
+          <t>multikills</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>pentaKills</t>
+          <t>visionScore</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>multikills</t>
+          <t>visionScorePerMinute</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>visionScore</t>
+          <t>totalTimeCCDealt</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>visionScorePerMinute</t>
+          <t>effectiveHealAndShielding</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>totalTimeCCDealt</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>effectiveHealAndShielding</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>cs14</t>
         </is>
@@ -13809,37 +13101,37 @@
         <v>5.491932761095788</v>
       </c>
       <c r="O2" t="n">
-        <v>61</v>
+        <v>8932</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>389.3348035414519</v>
       </c>
       <c r="Q2" t="n">
-        <v>8932</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>389.3348035414519</v>
+        <v>7675</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>334.534807477305</v>
       </c>
       <c r="T2" t="n">
-        <v>7675</v>
+        <v>0.1389691527220312</v>
       </c>
       <c r="U2" t="n">
-        <v>334.534807477305</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.1389691527220312</v>
+        <v>0.1077173202873222</v>
+      </c>
+      <c r="V2" t="b">
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1077173202873222</v>
-      </c>
-      <c r="X2" t="b">
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>
@@ -13848,24 +13140,18 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>0.4968580453976196</v>
       </c>
       <c r="AD2" t="n">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.4968580453976196</v>
+        <v>761.2379150390625</v>
       </c>
       <c r="AF2" t="n">
-        <v>121</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>761.2379150390625</v>
-      </c>
-      <c r="AH2" t="n">
         <v>84</v>
       </c>
     </row>
@@ -13921,63 +13207,57 @@
         <v>6.032818718170028</v>
       </c>
       <c r="O3" t="n">
-        <v>64</v>
+        <v>14665</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>517.410535042053</v>
       </c>
       <c r="Q3" t="n">
-        <v>14665</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>517.410535042053</v>
+        <v>24857</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>876.9499795318641</v>
       </c>
       <c r="T3" t="n">
-        <v>24857</v>
+        <v>0.2845095258397375</v>
       </c>
       <c r="U3" t="n">
-        <v>876.9499795318641</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.2845095258397375</v>
+        <v>0.1466855176625449</v>
+      </c>
+      <c r="V3" t="b">
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1466855176625449</v>
-      </c>
-      <c r="X3" t="b">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1</v>
       </c>
       <c r="Y3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AC3" t="n">
-        <v>6</v>
+        <v>0.5066381503452183</v>
       </c>
       <c r="AD3" t="n">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.5066381503452183</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>56</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
         <v>86</v>
       </c>
     </row>
